--- a/exports/takeOff_sheet.xlsx
+++ b/exports/takeOff_sheet.xlsx
@@ -43,7 +43,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -51,15 +51,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -481,2536 +486,2536 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="1" t="inlineStr">
         <is>
           <t>C25 Rfcd Conc in Pad fdn - F1</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="1" t="inlineStr">
         <is>
           <t>E20.1</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="1" t="inlineStr">
         <is>
           <t>10.00 /</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="1" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr"/>
+      <c r="H2" s="1" t="inlineStr"/>
+      <c r="I2" s="1" t="inlineStr">
         <is>
           <t>F1 size (1.2 x 1.2 x 0.15)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="C3" s="1" t="inlineStr"/>
+      <c r="D3" s="1" t="inlineStr"/>
+      <c r="E3" s="1" t="inlineStr"/>
+      <c r="F3" s="1" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+      <c r="G3" s="1" t="inlineStr"/>
+      <c r="H3" s="1" t="inlineStr"/>
+      <c r="I3" s="1" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="C4" s="1" t="inlineStr"/>
+      <c r="D4" s="1" t="inlineStr"/>
+      <c r="E4" s="1" t="inlineStr"/>
+      <c r="F4" s="1" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="1" t="inlineStr">
         <is>
           <t>2.16</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="1" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" s="1" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="1" t="inlineStr">
         <is>
           <t>C25 Rfcd Conc in Pad fdn cols - C1</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="1" t="inlineStr">
         <is>
           <t>E20.1</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="1" t="inlineStr">
         <is>
           <t>10.00 /</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" s="1" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="G5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="inlineStr">
         <is>
           <t>C1 size (0.15 x 0.15 x 1.5)</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="C6" s="1" t="inlineStr"/>
+      <c r="D6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr"/>
+      <c r="F6" s="1" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+      <c r="G6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="C7" s="1" t="inlineStr"/>
+      <c r="D7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr">
         <is>
           <t>1.50</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="1" t="inlineStr">
         <is>
           <t>0.34</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" s="1" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C8" s="1" t="inlineStr">
         <is>
           <t>C25 Rfcd Conc in Oversite bed</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="1" t="inlineStr">
         <is>
           <t>E20.1</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" s="1" t="inlineStr">
         <is>
           <t>1.00 /</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" s="1" t="inlineStr">
         <is>
           <t>10.00</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
+      <c r="G8" s="1" t="inlineStr"/>
+      <c r="H8" s="1" t="inlineStr"/>
+      <c r="I8" s="1" t="inlineStr">
         <is>
           <t>GL/A-D</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="1" t="inlineStr"/>
+      <c r="E9" s="1" t="inlineStr"/>
+      <c r="F9" s="1" t="inlineStr">
         <is>
           <t>15.00</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
+      <c r="G9" s="1" t="inlineStr"/>
+      <c r="H9" s="1" t="inlineStr"/>
+      <c r="I9" s="1" t="inlineStr">
         <is>
           <t>GL/1-4</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
+      <c r="C10" s="1" t="inlineStr"/>
+      <c r="D10" s="1" t="inlineStr"/>
+      <c r="E10" s="1" t="inlineStr"/>
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="1" t="inlineStr">
         <is>
           <t>22.50</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="1" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" s="1" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>C25 Rfcd Conc in Pad fdn - F1</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>E20.1</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="1" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr">
+      <c r="G11" s="1" t="inlineStr"/>
+      <c r="H11" s="1" t="inlineStr"/>
+      <c r="I11" s="1" t="inlineStr">
         <is>
           <t>F1 size (1.2 x 1.2 x 0.15)</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="C12" s="1" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
+      <c r="F12" s="1" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
+      <c r="C13" s="1" t="inlineStr"/>
+      <c r="D13" s="1" t="inlineStr"/>
+      <c r="E13" s="1" t="inlineStr"/>
+      <c r="F13" s="1" t="inlineStr">
         <is>
           <t>0.15</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="1" t="inlineStr">
         <is>
           <t>1.08</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H13" s="1" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" s="1" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>m3_E3</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="B14" s="2" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C14" s="1" t="inlineStr"/>
-      <c r="D14" s="1" t="inlineStr"/>
-      <c r="E14" s="1" t="inlineStr"/>
-      <c r="F14" s="1" t="inlineStr"/>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>26.08</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
+      <c r="H14" s="2" t="inlineStr">
         <is>
           <t>m3</t>
         </is>
       </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>rft_E10</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" s="1" t="inlineStr">
         <is>
           <t>16mm dia rft to slabs</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="1" t="inlineStr">
         <is>
           <t>E20.2</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" s="1" t="inlineStr">
         <is>
           <t>999.00 /</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" s="1" t="inlineStr">
         <is>
           <t>999.00</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G15" s="1" t="inlineStr">
         <is>
           <t>998,001.00</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="H15" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="I15" s="1" t="inlineStr">
         <is>
           <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>rft_E10</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="1" t="inlineStr">
         <is>
           <t>16mm dia rft to beams</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="1" t="inlineStr">
         <is>
           <t>E20.2</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="1" t="inlineStr">
         <is>
           <t>999.00 /</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="1" t="inlineStr">
         <is>
           <t>999.00</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="1" t="inlineStr">
         <is>
           <t>998,001.00</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" s="1" t="inlineStr">
         <is>
           <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>rft_E10</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" s="1" t="inlineStr">
         <is>
           <t>16mm dia rft to columns</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="1" t="inlineStr">
         <is>
           <t>E20.2</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E17" s="1" t="inlineStr">
         <is>
           <t>999.00 /</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F17" s="1" t="inlineStr">
         <is>
           <t>999.00</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G17" s="1" t="inlineStr">
         <is>
           <t>998,001.00</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H17" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="I17" s="1" t="inlineStr">
         <is>
           <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>rft_E10</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="1" t="inlineStr">
         <is>
           <t>16mm dia rft to columns</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="1" t="inlineStr">
         <is>
           <t>E20.2</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="1" t="inlineStr">
         <is>
           <t>999.00 /</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="1" t="inlineStr">
         <is>
           <t>999.00</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="1" t="inlineStr">
         <is>
           <t>998,001.00</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" s="1" t="inlineStr">
         <is>
           <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>rft_E10</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="1" t="inlineStr">
         <is>
           <t>16mm dia rft to columns</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="1" t="inlineStr">
         <is>
           <t>E20.2</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="1" t="inlineStr">
         <is>
           <t>999.00 /</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="1" t="inlineStr">
         <is>
           <t>999.00</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="1" t="inlineStr">
         <is>
           <t>998,001.00</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" s="1" t="inlineStr">
         <is>
           <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>rft_E10</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="1" t="inlineStr">
         <is>
           <t>16mm dia rft to columns</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="1" t="inlineStr">
         <is>
           <t>E20.2</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="1" t="inlineStr">
         <is>
           <t>999.00 /</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="1" t="inlineStr">
         <is>
           <t>999.00</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="1" t="inlineStr">
         <is>
           <t>998,001.00</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" s="1" t="inlineStr">
         <is>
           <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>rft_E10</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C21" s="1" t="inlineStr"/>
-      <c r="D21" s="1" t="inlineStr"/>
-      <c r="E21" s="1" t="inlineStr"/>
-      <c r="F21" s="1" t="inlineStr"/>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
+      <c r="E21" s="2" t="inlineStr"/>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr">
         <is>
           <t>5,988,006.00</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
+      <c r="H21" s="2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="I21" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>rft_E10</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr"/>
-      <c r="D22" s="2" t="inlineStr"/>
-      <c r="E22" s="2" t="inlineStr"/>
-      <c r="F22" s="2" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>0.888</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>5,317.35</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
+      <c r="H22" s="3" t="inlineStr">
         <is>
           <t>t</t>
         </is>
       </c>
-      <c r="I22" s="2" t="inlineStr">
+      <c r="I22" s="3" t="inlineStr">
         <is>
           <t>TONNAGE</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>rft_E8</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" s="1" t="inlineStr">
         <is>
           <t>16mm M.S Rft to columns - C1</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="1" t="inlineStr">
         <is>
           <t>E30.2</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="E23" s="1" t="inlineStr">
         <is>
           <t>100.00 /</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="F23" s="1" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G23" s="1" t="inlineStr">
         <is>
           <t>10,000.00</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I23" s="1" t="inlineStr">
         <is>
           <t>R1615</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>rft_E8</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C24" s="1" t="inlineStr">
         <is>
           <t>16mm M.S Rft to columns - C1</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="1" t="inlineStr">
         <is>
           <t>E30.2</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="E24" s="1" t="inlineStr">
         <is>
           <t>100.00 /</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="F24" s="1" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G24" s="1" t="inlineStr">
         <is>
           <t>10,000.00</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H24" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I24" s="1" t="inlineStr">
         <is>
           <t>R1615</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>rft_E8</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="1" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C25" s="1" t="inlineStr">
         <is>
           <t>16mm M.S Rft to columns - C1</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="1" t="inlineStr">
         <is>
           <t>E30.2</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="1" t="inlineStr">
         <is>
           <t>100.00 /</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="F25" s="1" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G25" s="1" t="inlineStr">
         <is>
           <t>10,000.00</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H25" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I25" s="1" t="inlineStr">
         <is>
           <t>R1615</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>rft_E8</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="B26" s="2" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C26" s="1" t="inlineStr"/>
-      <c r="D26" s="1" t="inlineStr"/>
-      <c r="E26" s="1" t="inlineStr"/>
-      <c r="F26" s="1" t="inlineStr"/>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="C26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>30,000.00</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="I26" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>rft_E8</t>
         </is>
       </c>
-      <c r="B27" s="2" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>E</t>
         </is>
       </c>
-      <c r="C27" s="2" t="inlineStr"/>
-      <c r="D27" s="2" t="inlineStr"/>
-      <c r="E27" s="2" t="inlineStr"/>
-      <c r="F27" s="2" t="inlineStr">
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
+      <c r="F27" s="3" t="inlineStr">
         <is>
           <t>0.888</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
+      <c r="G27" s="3" t="inlineStr">
         <is>
           <t>26.64</t>
         </is>
       </c>
-      <c r="H27" s="2" t="inlineStr">
+      <c r="H27" s="3" t="inlineStr">
         <is>
           <t>t</t>
         </is>
       </c>
-      <c r="I27" s="2" t="inlineStr">
+      <c r="I27" s="3" t="inlineStr">
         <is>
           <t>TONNAGE</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>m_F1</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" s="1" t="inlineStr">
         <is>
           <t>Precast Sills (100x75mm, splayed) to windows</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="1" t="inlineStr">
         <is>
           <t>F10.15.3</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="E28" s="1" t="inlineStr">
         <is>
           <t>50.00 /</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" s="1" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G28" s="1" t="inlineStr">
         <is>
           <t>4,550.00</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="I28" s="1" t="inlineStr">
         <is>
           <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>m_F1</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" s="1" t="inlineStr">
         <is>
           <t>Precast Sills (100x75mm, splayed) to windows</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="1" t="inlineStr">
         <is>
           <t>F10.15.3</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E29" s="1" t="inlineStr">
         <is>
           <t>50.00 /</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F29" s="1" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G29" s="1" t="inlineStr">
         <is>
           <t>4,550.00</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I29" s="1" t="inlineStr">
         <is>
           <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>m_F1</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C30" s="1" t="inlineStr">
         <is>
           <t>Precast Sills (100x75mm, splayed) to windows</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="1" t="inlineStr">
         <is>
           <t>F10.15.3</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E30" s="1" t="inlineStr">
         <is>
           <t>50.00 /</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" s="1" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G30" s="1" t="inlineStr">
         <is>
           <t>4,550.00</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="I30" s="1" t="inlineStr">
         <is>
           <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>m_F1</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C31" s="1" t="inlineStr">
         <is>
           <t>Precast Sills (100x75mm, splayed) to windows</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="1" t="inlineStr">
         <is>
           <t>F10.15.3</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E31" s="1" t="inlineStr">
         <is>
           <t>50.00 /</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="F31" s="1" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G31" s="1" t="inlineStr">
         <is>
           <t>4,550.00</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="H31" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="I31" s="1" t="inlineStr">
         <is>
           <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>m_F1</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C32" s="1" t="inlineStr">
         <is>
           <t>Precast Sills (100x75mm, splayed) to windows</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="1" t="inlineStr">
         <is>
           <t>F10.15.3</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E32" s="1" t="inlineStr">
         <is>
           <t>50.00 /</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F32" s="1" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G32" s="1" t="inlineStr">
         <is>
           <t>4,550.00</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H32" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I32" s="1" t="inlineStr">
         <is>
           <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>m_F1</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr"/>
-      <c r="D33" s="1" t="inlineStr"/>
-      <c r="E33" s="1" t="inlineStr"/>
-      <c r="F33" s="1" t="inlineStr"/>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
         <is>
           <t>22,750.00</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
+      <c r="H33" s="2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="I33" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="C34" s="1" t="inlineStr">
         <is>
           <t>150mm solid blockwork - Bedrooms</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="1" t="inlineStr">
         <is>
           <t>F30.1</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E34" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F34" s="1" t="inlineStr">
         <is>
           <t>12.00</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
+      <c r="G34" s="1" t="inlineStr"/>
+      <c r="H34" s="1" t="inlineStr"/>
+      <c r="I34" s="1" t="inlineStr">
         <is>
           <t>GL/A-B x4</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
+      <c r="C35" s="1" t="inlineStr"/>
+      <c r="D35" s="1" t="inlineStr"/>
+      <c r="E35" s="1" t="inlineStr"/>
+      <c r="F35" s="1" t="inlineStr">
         <is>
           <t>3.15</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G35" s="1" t="inlineStr">
         <is>
           <t>189.00</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H35" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="I35" s="1" t="inlineStr">
         <is>
           <t>flr to clg ht = 3.15m</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" s="1" t="inlineStr">
         <is>
           <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="1" t="inlineStr">
         <is>
           <t>F30.1</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="E36" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="F36" s="1" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
+      <c r="G36" s="1" t="inlineStr"/>
+      <c r="H36" s="1" t="inlineStr"/>
+      <c r="I36" s="1" t="inlineStr">
         <is>
           <t>DDT Windows</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
+      <c r="C37" s="1" t="inlineStr"/>
+      <c r="D37" s="1" t="inlineStr"/>
+      <c r="E37" s="1" t="inlineStr"/>
+      <c r="F37" s="1" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G37" s="1" t="inlineStr">
         <is>
           <t>10.80</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I37" s="1" t="inlineStr">
         <is>
           <t>ddt - W1 x 3nr</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C38" s="1" t="inlineStr">
         <is>
           <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="1" t="inlineStr">
         <is>
           <t>F30.1</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="E38" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="F38" s="1" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr">
+      <c r="G38" s="1" t="inlineStr"/>
+      <c r="H38" s="1" t="inlineStr"/>
+      <c r="I38" s="1" t="inlineStr">
         <is>
           <t>DDT Windows</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr">
+      <c r="C39" s="1" t="inlineStr"/>
+      <c r="D39" s="1" t="inlineStr"/>
+      <c r="E39" s="1" t="inlineStr"/>
+      <c r="F39" s="1" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" s="1" t="inlineStr">
         <is>
           <t>10.80</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I39" s="1" t="inlineStr">
         <is>
           <t>ddt - W1 x 3nr</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="C40" s="1" t="inlineStr">
         <is>
           <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="1" t="inlineStr">
         <is>
           <t>F30.1</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E40" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="F40" s="1" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr">
+      <c r="G40" s="1" t="inlineStr"/>
+      <c r="H40" s="1" t="inlineStr"/>
+      <c r="I40" s="1" t="inlineStr">
         <is>
           <t>DDT Windows</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
+      <c r="C41" s="1" t="inlineStr"/>
+      <c r="D41" s="1" t="inlineStr"/>
+      <c r="E41" s="1" t="inlineStr"/>
+      <c r="F41" s="1" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G41" s="1" t="inlineStr">
         <is>
           <t>10.80</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="I41" s="1" t="inlineStr">
         <is>
           <t>ddt - W1 x 3nr</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="1" t="inlineStr">
         <is>
           <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" s="1" t="inlineStr">
         <is>
           <t>F30.1</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="1" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
+      <c r="G42" s="1" t="inlineStr"/>
+      <c r="H42" s="1" t="inlineStr"/>
+      <c r="I42" s="1" t="inlineStr">
         <is>
           <t>DDT Windows</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
+      <c r="C43" s="1" t="inlineStr"/>
+      <c r="D43" s="1" t="inlineStr"/>
+      <c r="E43" s="1" t="inlineStr"/>
+      <c r="F43" s="1" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G43" s="1" t="inlineStr">
         <is>
           <t>10.80</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H43" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="I43" s="1" t="inlineStr">
         <is>
           <t>ddt - W1 x 3nr</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+      <c r="A44" s="2" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C44" s="1" t="inlineStr"/>
-      <c r="D44" s="1" t="inlineStr"/>
-      <c r="E44" s="1" t="inlineStr"/>
-      <c r="F44" s="1" t="inlineStr"/>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
         <is>
           <t>232.20</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
+      <c r="H44" s="2" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="I44" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>nr_L1</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>Panel Doors (hdwd) - D1</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="1" t="inlineStr">
         <is>
           <t>L20.1</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="E45" s="1" t="inlineStr">
         <is>
           <t>10.00 /</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="F45" s="1" t="inlineStr">
         <is>
           <t>10.00</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G45" s="1" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="H45" s="1" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="I45" s="1" t="inlineStr">
         <is>
           <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>nr_L1</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="1" t="inlineStr">
         <is>
           <t>Flush Doors (hdwd) - D2</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" s="1" t="inlineStr">
         <is>
           <t>L20.1</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="1" t="inlineStr">
         <is>
           <t>15.00</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" s="1" t="inlineStr">
         <is>
           <t>75.00</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" s="1" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="I46" s="1" t="inlineStr">
         <is>
           <t>D2 (750x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>nr_L1</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" s="1" t="inlineStr">
         <is>
           <t>Flush Doors (hdwd) - D2</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" s="1" t="inlineStr">
         <is>
           <t>L20.1</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E47" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F47" s="1" t="inlineStr">
         <is>
           <t>15.00</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" s="1" t="inlineStr">
         <is>
           <t>75.00</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H47" s="1" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I47" s="1" t="inlineStr">
         <is>
           <t>D2 (750x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>nr_L1</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="1" t="inlineStr">
         <is>
           <t>Flush Doors (hdwd) - D2</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" s="1" t="inlineStr">
         <is>
           <t>L20.1</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="1" t="inlineStr">
         <is>
           <t>15.00</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" s="1" t="inlineStr">
         <is>
           <t>75.00</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" s="1" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I48" s="1" t="inlineStr">
         <is>
           <t>D2 (750x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>nr_L1</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" s="1" t="inlineStr">
         <is>
           <t>Flush Doors (hdwd) - D2</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" s="1" t="inlineStr">
         <is>
           <t>L20.1</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E49" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F49" s="1" t="inlineStr">
         <is>
           <t>15.00</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G49" s="1" t="inlineStr">
         <is>
           <t>75.00</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H49" s="1" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I49" s="1" t="inlineStr">
         <is>
           <t>D2 (750x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
+      <c r="A50" s="2" t="inlineStr">
         <is>
           <t>nr_L1</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="B50" s="2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C50" s="1" t="inlineStr"/>
-      <c r="D50" s="1" t="inlineStr"/>
-      <c r="E50" s="1" t="inlineStr"/>
-      <c r="F50" s="1" t="inlineStr"/>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
         <is>
           <t>400.00</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
+      <c r="H50" s="2" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="I50" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>nr_L2</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="1" t="inlineStr">
         <is>
           <t>Panel Door Frames (150x25mm; composite unit)</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="1" t="inlineStr">
         <is>
           <t>L20.7.6</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="1" t="inlineStr">
         <is>
           <t>10.00 /</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="1" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" s="1" t="inlineStr">
         <is>
           <t>50.00</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" s="1" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I51" s="1" t="inlineStr">
         <is>
           <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="inlineStr">
         <is>
           <t>nr_L2</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C52" s="1" t="inlineStr">
         <is>
           <t>Flush Door Frames (150x25mm; composite unit)</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" s="1" t="inlineStr">
         <is>
           <t>L20.7.6</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E52" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F52" s="1" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" s="1" t="inlineStr">
         <is>
           <t>25.00</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" s="1" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="I52" s="1" t="inlineStr">
         <is>
           <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="inlineStr">
         <is>
           <t>nr_L2</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C53" s="1" t="inlineStr">
         <is>
           <t>Flush Door Frames (150x25mm; composite unit)</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" s="1" t="inlineStr">
         <is>
           <t>L20.7.6</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E53" s="1" t="inlineStr">
         <is>
           <t>5.00 /</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F53" s="1" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G53" s="1" t="inlineStr">
         <is>
           <t>25.00</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" s="1" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="I53" s="1" t="inlineStr">
         <is>
           <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="inlineStr">
+      <c r="A54" s="4" t="inlineStr">
         <is>
           <t>nr_L2</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C54" s="4" t="inlineStr">
         <is>
           <t>Flush Door Frames (150x25mm; composite unit)</t>
         </is>
       </c>
-      <c r="D54" s="3" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>L20.7.6</t>
         </is>
       </c>
-      <c r="E54" s="3" t="inlineStr">
+      <c r="E54" s="4" t="inlineStr">
         <is>
           <t>1.00 /</t>
         </is>
       </c>
-      <c r="F54" s="3" t="inlineStr">
+      <c r="F54" s="4" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="G54" s="3" t="inlineStr">
+      <c r="G54" s="4" t="inlineStr">
         <is>
           <t>-5.00</t>
         </is>
       </c>
-      <c r="H54" s="3" t="inlineStr">
+      <c r="H54" s="4" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I54" s="3" t="inlineStr">
+      <c r="I54" s="4" t="inlineStr">
         <is>
           <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="inlineStr">
         <is>
           <t>nr_L2</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="1" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C55" s="1" t="inlineStr">
         <is>
           <t>Flush Door Frames (150x25mm; composite unit)</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" s="1" t="inlineStr">
         <is>
           <t>L20.7.6</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E55" s="1" t="inlineStr">
         <is>
           <t>1.00 /</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="F55" s="1" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="G55" s="1" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" s="1" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I55" t="inlineStr">
+      <c r="I55" s="1" t="inlineStr">
         <is>
           <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>nr_L2</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
+      <c r="B56" s="2" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="C56" s="1" t="inlineStr"/>
-      <c r="D56" s="1" t="inlineStr"/>
-      <c r="E56" s="1" t="inlineStr"/>
-      <c r="F56" s="1" t="inlineStr"/>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="C56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
         <is>
           <t>100.00</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
+      <c r="H56" s="2" t="inlineStr">
         <is>
           <t>nr</t>
         </is>
       </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="I56" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="inlineStr">
         <is>
           <t>m_M2</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="1" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C57" s="1" t="inlineStr">
         <is>
           <t>Porc Treads (300mm wide, 12mm th.) to stairs</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" s="1" t="inlineStr">
         <is>
           <t>M20.7</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E57" s="1" t="inlineStr">
         <is>
           <t>17.00 /</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="F57" s="1" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="G57" s="1" t="inlineStr">
         <is>
           <t>20.40</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I57" t="inlineStr">
+      <c r="I57" s="1" t="inlineStr">
         <is>
           <t>treads x17nr</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>m_M2</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr"/>
-      <c r="D58" s="1" t="inlineStr"/>
-      <c r="E58" s="1" t="inlineStr"/>
-      <c r="F58" s="1" t="inlineStr"/>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
         <is>
           <t>20.40</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
+      <c r="H58" s="2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="I58" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr">
         <is>
           <t>m_M3</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="1" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="1" t="inlineStr">
         <is>
           <t>Porc Riser (150mm high, 12mm th.) to stairs</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" s="1" t="inlineStr">
         <is>
           <t>M20.8</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="1" t="inlineStr">
         <is>
           <t>18.00 /</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="1" t="inlineStr">
         <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" s="1" t="inlineStr">
         <is>
           <t>21.60</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I59" s="1" t="inlineStr">
         <is>
           <t>risers x18nr</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>m_M3</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C60" s="1" t="inlineStr"/>
-      <c r="D60" s="1" t="inlineStr"/>
-      <c r="E60" s="1" t="inlineStr"/>
-      <c r="F60" s="1" t="inlineStr"/>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
         <is>
           <t>21.60</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
+      <c r="H60" s="2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="inlineStr">
         <is>
           <t>m_M4</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="1" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C61" s="1" t="inlineStr">
         <is>
           <t>Porc Skirting (100mm high, flush)</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" s="1" t="inlineStr">
         <is>
           <t>M20.13</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E61" s="1" t="inlineStr">
         <is>
           <t>3.00 /</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" s="1" t="inlineStr">
         <is>
           <t>12.00</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G61" s="1" t="inlineStr">
         <is>
           <t>36.00</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H61" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="I61" s="1" t="inlineStr">
         <is>
           <t>BR1,2,3</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="inlineStr">
+      <c r="A62" s="4" t="inlineStr">
         <is>
           <t>m_M4</t>
         </is>
       </c>
-      <c r="B62" s="3" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C62" s="3" t="inlineStr">
+      <c r="C62" s="4" t="inlineStr">
         <is>
           <t>Porc Skirting (100mm high, flush)</t>
         </is>
       </c>
-      <c r="D62" s="3" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr">
         <is>
           <t>M20.13</t>
         </is>
       </c>
-      <c r="E62" s="3" t="inlineStr">
+      <c r="E62" s="4" t="inlineStr">
         <is>
           <t>3.00 /</t>
         </is>
       </c>
-      <c r="F62" s="3" t="inlineStr">
+      <c r="F62" s="4" t="inlineStr">
         <is>
           <t>0.90</t>
         </is>
       </c>
-      <c r="G62" s="3" t="inlineStr">
+      <c r="G62" s="4" t="inlineStr">
         <is>
           <t>-2.70</t>
         </is>
       </c>
-      <c r="H62" s="3" t="inlineStr">
+      <c r="H62" s="4" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I62" s="3" t="inlineStr">
+      <c r="I62" s="4" t="inlineStr">
         <is>
           <t>BR1,2,3 --ddt D1 x3</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="inlineStr">
         <is>
           <t>m_M4</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="1" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C63" s="1" t="inlineStr">
         <is>
           <t>Porc Skirting (100mm high, flush)</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" s="1" t="inlineStr">
         <is>
           <t>M20.13</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E63" s="1" t="inlineStr">
         <is>
           <t>1.00 /</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F63" s="1" t="inlineStr">
         <is>
           <t>19.00</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G63" s="1" t="inlineStr">
         <is>
           <t>19.00</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="I63" s="1" t="inlineStr">
         <is>
           <t>Hall</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="inlineStr">
+      <c r="A64" s="4" t="inlineStr">
         <is>
           <t>m_M4</t>
         </is>
       </c>
-      <c r="B64" s="3" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C64" s="3" t="inlineStr">
+      <c r="C64" s="4" t="inlineStr">
         <is>
           <t>Porc Skirting (100mm high, flush)</t>
         </is>
       </c>
-      <c r="D64" s="3" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr">
         <is>
           <t>M20.13</t>
         </is>
       </c>
-      <c r="E64" s="3" t="inlineStr">
+      <c r="E64" s="4" t="inlineStr">
         <is>
           <t>2.00 /</t>
         </is>
       </c>
-      <c r="F64" s="3" t="inlineStr">
+      <c r="F64" s="4" t="inlineStr">
         <is>
           <t>0.90</t>
         </is>
       </c>
-      <c r="G64" s="3" t="inlineStr">
+      <c r="G64" s="4" t="inlineStr">
         <is>
           <t>-1.80</t>
         </is>
       </c>
-      <c r="H64" s="3" t="inlineStr">
+      <c r="H64" s="4" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I64" s="3" t="inlineStr">
+      <c r="I64" s="4" t="inlineStr">
         <is>
           <t>Hall --ddt D1 x2</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>m_M4</t>
         </is>
       </c>
-      <c r="B65" s="1" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>M</t>
         </is>
       </c>
-      <c r="C65" s="1" t="inlineStr"/>
-      <c r="D65" s="1" t="inlineStr"/>
-      <c r="E65" s="1" t="inlineStr"/>
-      <c r="F65" s="1" t="inlineStr"/>
-      <c r="G65" s="1" t="inlineStr">
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="inlineStr"/>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
         <is>
           <t>50.50</t>
         </is>
       </c>
-      <c r="H65" s="1" t="inlineStr">
+      <c r="H65" s="2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I65" s="1" t="inlineStr">
+      <c r="I65" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>

--- a/exports/takeOff_sheet.xlsx
+++ b/exports/takeOff_sheet.xlsx
@@ -29,10 +29,10 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <color rgb="FF00FF00"/>
+      <color rgb="FFFF0000"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00FF00"/>
     </font>
   </fonts>
   <fills count="2">
@@ -488,213 +488,293 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m_F1</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>C25 Rfcd Conc in Pad fdn - F1</t>
+          <t>Precast Sills (100x75mm, splayed) to windows</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>E20.1</t>
+          <t>F10.15.3</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>10.00 /</t>
+          <t>50.00 /</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr"/>
-      <c r="H2" s="1" t="inlineStr"/>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>4,550.00</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>F1 size (1.2 x 1.2 x 0.15)</t>
+          <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m_F1</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr"/>
-      <c r="D3" s="1" t="inlineStr"/>
-      <c r="E3" s="1" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Precast Sills (100x75mm, splayed) to windows</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>F10.15.3</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>50.00 /</t>
+        </is>
+      </c>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr"/>
-      <c r="H3" s="1" t="inlineStr"/>
-      <c r="I3" s="1" t="inlineStr"/>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>4,550.00</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>W1 x10nr</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m_F1</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr"/>
-      <c r="D4" s="1" t="inlineStr"/>
-      <c r="E4" s="1" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Precast Sills (100x75mm, splayed) to windows</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>F10.15.3</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="inlineStr">
+        <is>
+          <t>50.00 /</t>
+        </is>
+      </c>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>91.00</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4,550.00</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>m3</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr"/>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr">
+        <is>
+          <t>W1 x10nr</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m_F1</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>C25 Rfcd Conc in Pad fdn cols - C1</t>
+          <t>Precast Sills (100x75mm, splayed) to windows</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>E20.1</t>
+          <t>F10.15.3</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>10.00 /</t>
+          <t>50.00 /</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr"/>
-      <c r="H5" s="1" t="inlineStr"/>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>4,550.00</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>C1 size (0.15 x 0.15 x 1.5)</t>
+          <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m_F1</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr"/>
-      <c r="D6" s="1" t="inlineStr"/>
-      <c r="E6" s="1" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Precast Sills (100x75mm, splayed) to windows</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr">
+        <is>
+          <t>F10.15.3</t>
+        </is>
+      </c>
+      <c r="E6" s="1" t="inlineStr">
+        <is>
+          <t>50.00 /</t>
+        </is>
+      </c>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr"/>
-      <c r="H6" s="1" t="inlineStr"/>
-      <c r="I6" s="1" t="inlineStr"/>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr">
+        <is>
+          <t>4,550.00</t>
+        </is>
+      </c>
+      <c r="H6" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I6" s="1" t="inlineStr">
+        <is>
+          <t>W1 x10nr</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>m3_E3</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr"/>
-      <c r="D7" s="1" t="inlineStr"/>
-      <c r="E7" s="1" t="inlineStr"/>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>m3</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr"/>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>m_F1</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>22,750.00</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>nr_L1</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>C25 Rfcd Conc in Oversite bed</t>
+          <t>Panel Doors (hdwd) - D1</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>E20.1</t>
+          <t>L20.1</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>1.00 /</t>
+          <t>10.00 /</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
@@ -702,91 +782,135 @@
           <t>10.00</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr"/>
-      <c r="H8" s="1" t="inlineStr"/>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="H8" s="1" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>GL/A-D</t>
+          <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>nr_L1</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr"/>
-      <c r="D9" s="1" t="inlineStr"/>
-      <c r="E9" s="1" t="inlineStr"/>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Flush Doors (hdwd) - D2</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>L20.1</t>
+        </is>
+      </c>
+      <c r="E9" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
       <c r="F9" s="1" t="inlineStr">
         <is>
           <t>15.00</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr"/>
-      <c r="H9" s="1" t="inlineStr"/>
+      <c r="G9" s="1" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="H9" s="1" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>GL/1-4</t>
+          <t>D2 (750x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>nr_L1</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr"/>
-      <c r="D10" s="1" t="inlineStr"/>
-      <c r="E10" s="1" t="inlineStr"/>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Flush Doors (hdwd) - D2</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>L20.1</t>
+        </is>
+      </c>
+      <c r="E10" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>22.50</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>m3</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr"/>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>D2 (750x2100mm)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>nr_L1</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>C25 Rfcd Conc in Pad fdn - F1</t>
+          <t>Flush Doors (hdwd) - D2</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>E20.1</t>
+          <t>L20.1</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -796,371 +920,403 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr"/>
-      <c r="H11" s="1" t="inlineStr"/>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="H11" s="1" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>F1 size (1.2 x 1.2 x 0.15)</t>
+          <t>D2 (750x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>nr_L1</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr"/>
-      <c r="D12" s="1" t="inlineStr"/>
-      <c r="E12" s="1" t="inlineStr"/>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Flush Doors (hdwd) - D2</t>
+        </is>
+      </c>
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>L20.1</t>
+        </is>
+      </c>
+      <c r="E12" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr"/>
-      <c r="H12" s="1" t="inlineStr"/>
-      <c r="I12" s="1" t="inlineStr"/>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="H12" s="1" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I12" s="1" t="inlineStr">
+        <is>
+          <t>D2 (750x2100mm)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>m3_E3</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr"/>
-      <c r="D13" s="1" t="inlineStr"/>
-      <c r="E13" s="1" t="inlineStr"/>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G13" s="1" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>m3</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr"/>
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>nr_L1</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
+      <c r="F13" s="2" t="inlineStr"/>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>m3_E3</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr"/>
-      <c r="D14" s="2" t="inlineStr"/>
-      <c r="E14" s="2" t="inlineStr"/>
-      <c r="F14" s="2" t="inlineStr"/>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>26.08</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>m3</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>nr_L2</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Panel Door Frames (150x25mm; composite unit)</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr">
+        <is>
+          <t>L20.7.6</t>
+        </is>
+      </c>
+      <c r="E14" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
+      <c r="F14" s="1" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G14" s="1" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="H14" s="1" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I14" s="1" t="inlineStr">
+        <is>
+          <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>rft_E10</t>
+          <t>nr_L2</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>16mm dia rft to slabs</t>
+          <t>Flush Door Frames (150x25mm; composite unit)</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>E20.2</t>
+          <t>L20.7.6</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>999.00 /</t>
+          <t>5.00 /</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>999.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>998,001.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>nr</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>R1601 - Test Limit</t>
+          <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>rft_E10</t>
+          <t>nr_L2</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>16mm dia rft to beams</t>
+          <t>Flush Door Frames (150x25mm; composite unit)</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>E20.2</t>
+          <t>L20.7.6</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>999.00 /</t>
+          <t>5.00 /</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>999.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>998,001.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>nr</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>R1601 - Test Limit</t>
+          <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>rft_E10</t>
-        </is>
-      </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t>16mm dia rft to columns</t>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
-        <is>
-          <t>E20.2</t>
-        </is>
-      </c>
-      <c r="E17" s="1" t="inlineStr">
-        <is>
-          <t>999.00 /</t>
-        </is>
-      </c>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>999.00</t>
-        </is>
-      </c>
-      <c r="G17" s="1" t="inlineStr">
-        <is>
-          <t>998,001.00</t>
-        </is>
-      </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
-        <is>
-          <t>R1601 - Test Limit</t>
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>nr_L2</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Flush Door Frames (150x25mm; composite unit)</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>L20.7.6</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>1.00 /</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>-5.00</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I17" s="3" t="inlineStr">
+        <is>
+          <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>rft_E10</t>
+          <t>nr_L2</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>16mm dia rft to columns</t>
+          <t>Flush Door Frames (150x25mm; composite unit)</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>E20.2</t>
+          <t>L20.7.6</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>999.00 /</t>
+          <t>1.00 /</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>999.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>998,001.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>nr</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>R1601 - Test Limit</t>
+          <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>rft_E10</t>
-        </is>
-      </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t>16mm dia rft to columns</t>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
-        <is>
-          <t>E20.2</t>
-        </is>
-      </c>
-      <c r="E19" s="1" t="inlineStr">
-        <is>
-          <t>999.00 /</t>
-        </is>
-      </c>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>999.00</t>
-        </is>
-      </c>
-      <c r="G19" s="1" t="inlineStr">
-        <is>
-          <t>998,001.00</t>
-        </is>
-      </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
-        <is>
-          <t>R1601 - Test Limit</t>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>nr_L2</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>rft_E10</t>
+          <t>m_M2</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>16mm dia rft to columns</t>
+          <t>Porc Treads (300mm wide, 12mm th.) to stairs</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>E20.2</t>
+          <t>M20.7</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>999.00 /</t>
+          <t>17.00 /</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>999.00</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>998,001.00</t>
+          <t>20.40</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
@@ -1170,19 +1326,19 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>R1601 - Test Limit</t>
+          <t>treads x17nr</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>rft_E10</t>
+          <t>m_M2</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -1191,7 +1347,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,988,006.00</t>
+          <t>20.40</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1206,121 +1362,117 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="inlineStr">
-        <is>
-          <t>rft_E10</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr"/>
-      <c r="D22" s="3" t="inlineStr"/>
-      <c r="E22" s="3" t="inlineStr"/>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>0.888</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>5,317.35</t>
-        </is>
-      </c>
-      <c r="H22" s="3" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>TONNAGE</t>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>m_M3</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Porc Riser (150mm high, 12mm th.) to stairs</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>M20.8</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>18.00 /</t>
+        </is>
+      </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G22" s="1" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="H22" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I22" s="1" t="inlineStr">
+        <is>
+          <t>risers x18nr</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>rft_E8</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>16mm M.S Rft to columns - C1</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>E30.2</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>100.00 /</t>
-        </is>
-      </c>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="G23" s="1" t="inlineStr">
-        <is>
-          <t>10,000.00</t>
-        </is>
-      </c>
-      <c r="H23" s="1" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>m_M3</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
+      <c r="E23" s="2" t="inlineStr"/>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I23" s="1" t="inlineStr">
-        <is>
-          <t>R1615</t>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>rft_E8</t>
+          <t>m_M4</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>16mm M.S Rft to columns - C1</t>
+          <t>Porc Skirting (100mm high, flush)</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>E30.2</t>
+          <t>M20.13</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>100.00 /</t>
+          <t>3.00 /</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>10,000.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
@@ -1330,174 +1482,186 @@
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>R1615</t>
+          <t>BR1,2,3</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>rft_E8</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>16mm M.S Rft to columns - C1</t>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>E30.2</t>
-        </is>
-      </c>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t>100.00 /</t>
-        </is>
-      </c>
-      <c r="F25" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="G25" s="1" t="inlineStr">
-        <is>
-          <t>10,000.00</t>
-        </is>
-      </c>
-      <c r="H25" s="1" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>m_M4</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>Porc Skirting (100mm high, flush)</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>M20.13</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>3.00 /</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>-2.70</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I25" s="1" t="inlineStr">
-        <is>
-          <t>R1615</t>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>BR1,2,3 --ddt D1 x3</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
-        <is>
-          <t>rft_E8</t>
-        </is>
-      </c>
-      <c r="B26" s="2" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr"/>
-      <c r="D26" s="2" t="inlineStr"/>
-      <c r="E26" s="2" t="inlineStr"/>
-      <c r="F26" s="2" t="inlineStr"/>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>30,000.00</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>m_M4</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Porc Skirting (100mm high, flush)</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>M20.13</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>1.00 /</t>
+        </is>
+      </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="G26" s="1" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="H26" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
+      <c r="I26" s="1" t="inlineStr">
+        <is>
+          <t>Hall</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>rft_E8</t>
+          <t>m_M4</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr"/>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Porc Skirting (100mm high, flush)</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>M20.13</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>2.00 /</t>
+        </is>
+      </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>0.888</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>26.64</t>
+          <t>-1.80</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
-          <t>t</t>
+          <t>m</t>
         </is>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>TONNAGE</t>
+          <t>Hall --ddt D1 x2</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>m_F1</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>Precast Sills (100x75mm, splayed) to windows</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
-        <is>
-          <t>F10.15.3</t>
-        </is>
-      </c>
-      <c r="E28" s="1" t="inlineStr">
-        <is>
-          <t>50.00 /</t>
-        </is>
-      </c>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="G28" s="1" t="inlineStr">
-        <is>
-          <t>4,550.00</t>
-        </is>
-      </c>
-      <c r="H28" s="1" t="inlineStr">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>m_M4</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
+      <c r="D28" s="2" t="inlineStr"/>
+      <c r="E28" s="2" t="inlineStr"/>
+      <c r="F28" s="2" t="inlineStr"/>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I28" s="1" t="inlineStr">
-        <is>
-          <t>W1 x10nr</t>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>m_F1</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -1507,44 +1671,36 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Precast Sills (100x75mm, splayed) to windows</t>
+          <t>150mm solid blockwork - Bedrooms</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>F10.15.3</t>
+          <t>F30.1</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>50.00 /</t>
+          <t>5.00 /</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr">
-        <is>
-          <t>4,550.00</t>
-        </is>
-      </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr"/>
+      <c r="H29" s="1" t="inlineStr"/>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>W1 x10nr</t>
+          <t>GL/A-B x4</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>m_F1</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1552,46 +1708,34 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>Precast Sills (100x75mm, splayed) to windows</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>F10.15.3</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t>50.00 /</t>
-        </is>
-      </c>
+      <c r="C30" s="1" t="inlineStr"/>
+      <c r="D30" s="1" t="inlineStr"/>
+      <c r="E30" s="1" t="inlineStr"/>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>4,550.00</t>
+          <t>189.00</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>W1 x10nr</t>
+          <t>flr to clg ht = 3.15m</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>m_F1</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1601,44 +1745,36 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Precast Sills (100x75mm, splayed) to windows</t>
+          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>F10.15.3</t>
+          <t>F30.1</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>50.00 /</t>
+          <t>5.00 /</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr">
-        <is>
-          <t>4,550.00</t>
-        </is>
-      </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr"/>
+      <c r="H31" s="1" t="inlineStr"/>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>W1 x10nr</t>
+          <t>DDT Windows</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>m_F1</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1646,70 +1782,66 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t>Precast Sills (100x75mm, splayed) to windows</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
-        <is>
-          <t>F10.15.3</t>
-        </is>
-      </c>
-      <c r="E32" s="1" t="inlineStr">
-        <is>
-          <t>50.00 /</t>
-        </is>
-      </c>
+      <c r="C32" s="1" t="inlineStr"/>
+      <c r="D32" s="1" t="inlineStr"/>
+      <c r="E32" s="1" t="inlineStr"/>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>4,550.00</t>
+          <t>10.80</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>m2</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>W1 x10nr</t>
+          <t>ddt - W1 x 3nr</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t>m_F1</t>
-        </is>
-      </c>
-      <c r="B33" s="2" t="inlineStr">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>m2_F1</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C33" s="2" t="inlineStr"/>
-      <c r="D33" s="2" t="inlineStr"/>
-      <c r="E33" s="2" t="inlineStr"/>
-      <c r="F33" s="2" t="inlineStr"/>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>22,750.00</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>F30.1</t>
+        </is>
+      </c>
+      <c r="E33" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
+      <c r="F33" s="1" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G33" s="1" t="inlineStr"/>
+      <c r="H33" s="1" t="inlineStr"/>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>DDT Windows</t>
         </is>
       </c>
     </row>
@@ -1724,31 +1856,27 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>150mm solid blockwork - Bedrooms</t>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
-        <is>
-          <t>F30.1</t>
-        </is>
-      </c>
-      <c r="E34" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
+      <c r="C34" s="1" t="inlineStr"/>
+      <c r="D34" s="1" t="inlineStr"/>
+      <c r="E34" s="1" t="inlineStr"/>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="inlineStr"/>
-      <c r="H34" s="1" t="inlineStr"/>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="H34" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>GL/A-B x4</t>
+          <t>ddt - W1 x 3nr</t>
         </is>
       </c>
     </row>
@@ -1763,27 +1891,31 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr"/>
-      <c r="D35" s="1" t="inlineStr"/>
-      <c r="E35" s="1" t="inlineStr"/>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>F30.1</t>
+        </is>
+      </c>
+      <c r="E35" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G35" s="1" t="inlineStr">
-        <is>
-          <t>189.00</t>
-        </is>
-      </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr"/>
+      <c r="H35" s="1" t="inlineStr"/>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>flr to clg ht = 3.15m</t>
+          <t>DDT Windows</t>
         </is>
       </c>
     </row>
@@ -1798,31 +1930,27 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
-        <is>
-          <t>F30.1</t>
-        </is>
-      </c>
-      <c r="E36" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
+      <c r="C36" s="1" t="inlineStr"/>
+      <c r="D36" s="1" t="inlineStr"/>
+      <c r="E36" s="1" t="inlineStr"/>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G36" s="1" t="inlineStr"/>
-      <c r="H36" s="1" t="inlineStr"/>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="H36" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>DDT Windows</t>
+          <t>ddt - W1 x 3nr</t>
         </is>
       </c>
     </row>
@@ -1837,27 +1965,31 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr"/>
-      <c r="D37" s="1" t="inlineStr"/>
-      <c r="E37" s="1" t="inlineStr"/>
+      <c r="C37" s="1" t="inlineStr">
+        <is>
+          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
+        </is>
+      </c>
+      <c r="D37" s="1" t="inlineStr">
+        <is>
+          <t>F30.1</t>
+        </is>
+      </c>
+      <c r="E37" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr"/>
+      <c r="H37" s="1" t="inlineStr"/>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>ddt - W1 x 3nr</t>
+          <t>DDT Windows</t>
         </is>
       </c>
     </row>
@@ -1872,117 +2004,109 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
-        <is>
-          <t>F30.1</t>
-        </is>
-      </c>
-      <c r="E38" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
+      <c r="C38" s="1" t="inlineStr"/>
+      <c r="D38" s="1" t="inlineStr"/>
+      <c r="E38" s="1" t="inlineStr"/>
       <c r="F38" s="1" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G38" s="1" t="inlineStr"/>
-      <c r="H38" s="1" t="inlineStr"/>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="H38" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>DDT Windows</t>
+          <t>ddt - W1 x 3nr</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>m2_F1</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="B39" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C39" s="1" t="inlineStr"/>
-      <c r="D39" s="1" t="inlineStr"/>
-      <c r="E39" s="1" t="inlineStr"/>
-      <c r="F39" s="1" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G39" s="1" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="H39" s="1" t="inlineStr">
+      <c r="C39" s="2" t="inlineStr"/>
+      <c r="D39" s="2" t="inlineStr"/>
+      <c r="E39" s="2" t="inlineStr"/>
+      <c r="F39" s="2" t="inlineStr"/>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>232.20</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="I39" s="1" t="inlineStr">
-        <is>
-          <t>ddt - W1 x 3nr</t>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>m2_F1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
+          <t>C25 Rfcd Conc in Pad fdn - F1</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>F30.1</t>
+          <t>E20.1</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>5.00 /</t>
+          <t>10.00 /</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr"/>
       <c r="H40" s="1" t="inlineStr"/>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>DDT Windows</t>
+          <t>F1 size (1.2 x 1.2 x 0.15)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>m2_F1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
@@ -1993,334 +2117,250 @@
           <t>1.20</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
-        <is>
-          <t>ddt - W1 x 3nr</t>
-        </is>
-      </c>
+      <c r="G41" s="1" t="inlineStr"/>
+      <c r="H41" s="1" t="inlineStr"/>
+      <c r="I41" s="1" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>m2_F1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
-        <is>
-          <t>F30.1</t>
-        </is>
-      </c>
-      <c r="E42" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr"/>
+      <c r="D42" s="1" t="inlineStr"/>
+      <c r="E42" s="1" t="inlineStr"/>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr"/>
-      <c r="H42" s="1" t="inlineStr"/>
-      <c r="I42" s="1" t="inlineStr">
-        <is>
-          <t>DDT Windows</t>
-        </is>
-      </c>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="H42" s="1" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>m2_F1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr"/>
-      <c r="D43" s="1" t="inlineStr"/>
-      <c r="E43" s="1" t="inlineStr"/>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr">
+        <is>
+          <t>C25 Rfcd Conc in Pad fdn cols - C1</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
+        <is>
+          <t>E20.1</t>
+        </is>
+      </c>
+      <c r="E43" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr"/>
+      <c r="H43" s="1" t="inlineStr"/>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>ddt - W1 x 3nr</t>
+          <t>C1 size (0.15 x 0.15 x 1.5)</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="inlineStr">
-        <is>
-          <t>m2_F1</t>
-        </is>
-      </c>
-      <c r="B44" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C44" s="2" t="inlineStr"/>
-      <c r="D44" s="2" t="inlineStr"/>
-      <c r="E44" s="2" t="inlineStr"/>
-      <c r="F44" s="2" t="inlineStr"/>
-      <c r="G44" s="2" t="inlineStr">
-        <is>
-          <t>232.20</t>
-        </is>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>m3_E3</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C44" s="1" t="inlineStr"/>
+      <c r="D44" s="1" t="inlineStr"/>
+      <c r="E44" s="1" t="inlineStr"/>
+      <c r="F44" s="1" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="G44" s="1" t="inlineStr"/>
+      <c r="H44" s="1" t="inlineStr"/>
+      <c r="I44" s="1" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>nr_L1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t>Panel Doors (hdwd) - D1</t>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
-        <is>
-          <t>L20.1</t>
-        </is>
-      </c>
-      <c r="E45" s="1" t="inlineStr">
-        <is>
-          <t>10.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr"/>
+      <c r="D45" s="1" t="inlineStr"/>
+      <c r="E45" s="1" t="inlineStr"/>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
-        <is>
-          <t>D1 (900x2100mm)</t>
-        </is>
-      </c>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>nr_L1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>Flush Doors (hdwd) - D2</t>
+          <t>C25 Rfcd Conc in Oversite bed</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>L20.1</t>
+          <t>E20.1</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>5.00 /</t>
+          <t>1.00 /</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr"/>
+      <c r="H46" s="1" t="inlineStr"/>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>D2 (750x2100mm)</t>
+          <t>GL/A-D</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>nr_L1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t>Flush Doors (hdwd) - D2</t>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
-        <is>
-          <t>L20.1</t>
-        </is>
-      </c>
-      <c r="E47" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr"/>
+      <c r="D47" s="1" t="inlineStr"/>
+      <c r="E47" s="1" t="inlineStr"/>
       <c r="F47" s="1" t="inlineStr">
         <is>
           <t>15.00</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
+      <c r="G47" s="1" t="inlineStr"/>
+      <c r="H47" s="1" t="inlineStr"/>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>D2 (750x2100mm)</t>
+          <t>GL/1-4</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>nr_L1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t>Flush Doors (hdwd) - D2</t>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
-        <is>
-          <t>L20.1</t>
-        </is>
-      </c>
-      <c r="E48" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr"/>
+      <c r="D48" s="1" t="inlineStr"/>
+      <c r="E48" s="1" t="inlineStr"/>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>22.50</t>
         </is>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
-        <is>
-          <t>D2 (750x2100mm)</t>
-        </is>
-      </c>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>nr_L1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>Flush Doors (hdwd) - D2</t>
+          <t>C25 Rfcd Conc in Pad fdn - F1</t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>L20.1</t>
+          <t>E20.1</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
@@ -2330,356 +2370,324 @@
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="G49" s="1" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr"/>
+      <c r="H49" s="1" t="inlineStr"/>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>D2 (750x2100mm)</t>
+          <t>F1 size (1.2 x 1.2 x 0.15)</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="inlineStr">
-        <is>
-          <t>nr_L1</t>
-        </is>
-      </c>
-      <c r="B50" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C50" s="2" t="inlineStr"/>
-      <c r="D50" s="2" t="inlineStr"/>
-      <c r="E50" s="2" t="inlineStr"/>
-      <c r="F50" s="2" t="inlineStr"/>
-      <c r="G50" s="2" t="inlineStr">
-        <is>
-          <t>400.00</t>
-        </is>
-      </c>
-      <c r="H50" s="2" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I50" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>m3_E3</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C50" s="1" t="inlineStr"/>
+      <c r="D50" s="1" t="inlineStr"/>
+      <c r="E50" s="1" t="inlineStr"/>
+      <c r="F50" s="1" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G50" s="1" t="inlineStr"/>
+      <c r="H50" s="1" t="inlineStr"/>
+      <c r="I50" s="1" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>nr_L2</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t>Panel Door Frames (150x25mm; composite unit)</t>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
-        <is>
-          <t>L20.7.6</t>
-        </is>
-      </c>
-      <c r="E51" s="1" t="inlineStr">
-        <is>
-          <t>10.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr"/>
+      <c r="D51" s="1" t="inlineStr"/>
+      <c r="E51" s="1" t="inlineStr"/>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>50.00</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
-        <is>
-          <t>D1 (900x2100mm)</t>
-        </is>
-      </c>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I51" s="1" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>nr_L2</t>
-        </is>
-      </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t>Flush Door Frames (150x25mm; composite unit)</t>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
-        <is>
-          <t>L20.7.6</t>
-        </is>
-      </c>
-      <c r="E52" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
-      <c r="F52" s="1" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G52" s="1" t="inlineStr">
-        <is>
-          <t>25.00</t>
-        </is>
-      </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
-        <is>
-          <t>D1 (900x2100mm)</t>
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>m3_E3</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr"/>
+      <c r="D52" s="2" t="inlineStr"/>
+      <c r="E52" s="2" t="inlineStr"/>
+      <c r="F52" s="2" t="inlineStr"/>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>nr_L2</t>
+          <t>rft_E10</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>Flush Door Frames (150x25mm; composite unit)</t>
+          <t>16mm dia rft to slabs</t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>L20.7.6</t>
+          <t>E20.2</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>5.00 /</t>
+          <t>999.00 /</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>998,001.00</t>
         </is>
       </c>
       <c r="H53" s="1" t="inlineStr">
         <is>
-          <t>nr</t>
+          <t>m</t>
         </is>
       </c>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t>D1 (900x2100mm)</t>
+          <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
-        <is>
-          <t>nr_L2</t>
-        </is>
-      </c>
-      <c r="B54" s="4" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>Flush Door Frames (150x25mm; composite unit)</t>
-        </is>
-      </c>
-      <c r="D54" s="4" t="inlineStr">
-        <is>
-          <t>L20.7.6</t>
-        </is>
-      </c>
-      <c r="E54" s="4" t="inlineStr">
-        <is>
-          <t>1.00 /</t>
-        </is>
-      </c>
-      <c r="F54" s="4" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G54" s="4" t="inlineStr">
-        <is>
-          <t>-5.00</t>
-        </is>
-      </c>
-      <c r="H54" s="4" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I54" s="4" t="inlineStr">
-        <is>
-          <t>D1 (900x2100mm)</t>
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>rft_E10</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C54" s="1" t="inlineStr">
+        <is>
+          <t>16mm dia rft to beams</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>E20.2</t>
+        </is>
+      </c>
+      <c r="E54" s="1" t="inlineStr">
+        <is>
+          <t>999.00 /</t>
+        </is>
+      </c>
+      <c r="F54" s="1" t="inlineStr">
+        <is>
+          <t>999.00</t>
+        </is>
+      </c>
+      <c r="G54" s="1" t="inlineStr">
+        <is>
+          <t>998,001.00</t>
+        </is>
+      </c>
+      <c r="H54" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I54" s="1" t="inlineStr">
+        <is>
+          <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>nr_L2</t>
+          <t>rft_E10</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>Flush Door Frames (150x25mm; composite unit)</t>
+          <t>16mm dia rft to columns</t>
         </is>
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>L20.7.6</t>
+          <t>E20.2</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>1.00 /</t>
+          <t>999.00 /</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>998,001.00</t>
         </is>
       </c>
       <c r="H55" s="1" t="inlineStr">
         <is>
-          <t>nr</t>
+          <t>m</t>
         </is>
       </c>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>D1 (900x2100mm)</t>
+          <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>nr_L2</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr"/>
-      <c r="D56" s="2" t="inlineStr"/>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="H56" s="2" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I56" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>rft_E10</t>
+        </is>
+      </c>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C56" s="1" t="inlineStr">
+        <is>
+          <t>16mm dia rft to columns</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>E20.2</t>
+        </is>
+      </c>
+      <c r="E56" s="1" t="inlineStr">
+        <is>
+          <t>999.00 /</t>
+        </is>
+      </c>
+      <c r="F56" s="1" t="inlineStr">
+        <is>
+          <t>999.00</t>
+        </is>
+      </c>
+      <c r="G56" s="1" t="inlineStr">
+        <is>
+          <t>998,001.00</t>
+        </is>
+      </c>
+      <c r="H56" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I56" s="1" t="inlineStr">
+        <is>
+          <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>m_M2</t>
+          <t>rft_E10</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>Porc Treads (300mm wide, 12mm th.) to stairs</t>
+          <t>16mm dia rft to columns</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>M20.7</t>
+          <t>E20.2</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>17.00 /</t>
+          <t>999.00 /</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>998,001.00</t>
         </is>
       </c>
       <c r="H57" s="1" t="inlineStr">
@@ -2689,153 +2697,157 @@
       </c>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t>treads x17nr</t>
+          <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="inlineStr">
-        <is>
-          <t>m_M2</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C58" s="2" t="inlineStr"/>
-      <c r="D58" s="2" t="inlineStr"/>
-      <c r="E58" s="2" t="inlineStr"/>
-      <c r="F58" s="2" t="inlineStr"/>
-      <c r="G58" s="2" t="inlineStr">
-        <is>
-          <t>20.40</t>
-        </is>
-      </c>
-      <c r="H58" s="2" t="inlineStr">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>rft_E10</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>16mm dia rft to columns</t>
+        </is>
+      </c>
+      <c r="D58" s="1" t="inlineStr">
+        <is>
+          <t>E20.2</t>
+        </is>
+      </c>
+      <c r="E58" s="1" t="inlineStr">
+        <is>
+          <t>999.00 /</t>
+        </is>
+      </c>
+      <c r="F58" s="1" t="inlineStr">
+        <is>
+          <t>999.00</t>
+        </is>
+      </c>
+      <c r="G58" s="1" t="inlineStr">
+        <is>
+          <t>998,001.00</t>
+        </is>
+      </c>
+      <c r="H58" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I58" s="2" t="inlineStr">
+      <c r="I58" s="1" t="inlineStr">
+        <is>
+          <t>R1601 - Test Limit</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>rft_E10</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr"/>
+      <c r="D59" s="2" t="inlineStr"/>
+      <c r="E59" s="2" t="inlineStr"/>
+      <c r="F59" s="2" t="inlineStr"/>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>5,988,006.00</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
         </is>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>m_M3</t>
-        </is>
-      </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t>Porc Riser (150mm high, 12mm th.) to stairs</t>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
-        <is>
-          <t>M20.8</t>
-        </is>
-      </c>
-      <c r="E59" s="1" t="inlineStr">
-        <is>
-          <t>18.00 /</t>
-        </is>
-      </c>
-      <c r="F59" s="1" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G59" s="1" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
-        <is>
-          <t>risers x18nr</t>
-        </is>
-      </c>
-    </row>
     <row r="60">
-      <c r="A60" s="2" t="inlineStr">
-        <is>
-          <t>m_M3</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C60" s="2" t="inlineStr"/>
-      <c r="D60" s="2" t="inlineStr"/>
-      <c r="E60" s="2" t="inlineStr"/>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="H60" s="2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I60" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
+      <c r="A60" s="4" t="inlineStr">
+        <is>
+          <t>rft_E10</t>
+        </is>
+      </c>
+      <c r="B60" s="4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C60" s="4" t="inlineStr"/>
+      <c r="D60" s="4" t="inlineStr"/>
+      <c r="E60" s="4" t="inlineStr"/>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>0.888</t>
+        </is>
+      </c>
+      <c r="G60" s="4" t="inlineStr">
+        <is>
+          <t>5,317.35</t>
+        </is>
+      </c>
+      <c r="H60" s="4" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="I60" s="4" t="inlineStr">
+        <is>
+          <t>TONNAGE</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>m_M4</t>
+          <t>rft_E8</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>Porc Skirting (100mm high, flush)</t>
+          <t>16mm M.S Rft to columns - C1</t>
         </is>
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>M20.13</t>
+          <t>E30.2</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>3.00 /</t>
+          <t>100.00 /</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>10,000.00</t>
         </is>
       </c>
       <c r="H61" s="1" t="inlineStr">
@@ -2845,91 +2857,91 @@
       </c>
       <c r="I61" s="1" t="inlineStr">
         <is>
-          <t>BR1,2,3</t>
+          <t>R1615</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="inlineStr">
-        <is>
-          <t>m_M4</t>
-        </is>
-      </c>
-      <c r="B62" s="4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C62" s="4" t="inlineStr">
-        <is>
-          <t>Porc Skirting (100mm high, flush)</t>
-        </is>
-      </c>
-      <c r="D62" s="4" t="inlineStr">
-        <is>
-          <t>M20.13</t>
-        </is>
-      </c>
-      <c r="E62" s="4" t="inlineStr">
-        <is>
-          <t>3.00 /</t>
-        </is>
-      </c>
-      <c r="F62" s="4" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G62" s="4" t="inlineStr">
-        <is>
-          <t>-2.70</t>
-        </is>
-      </c>
-      <c r="H62" s="4" t="inlineStr">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>rft_E8</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C62" s="1" t="inlineStr">
+        <is>
+          <t>16mm M.S Rft to columns - C1</t>
+        </is>
+      </c>
+      <c r="D62" s="1" t="inlineStr">
+        <is>
+          <t>E30.2</t>
+        </is>
+      </c>
+      <c r="E62" s="1" t="inlineStr">
+        <is>
+          <t>100.00 /</t>
+        </is>
+      </c>
+      <c r="F62" s="1" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="G62" s="1" t="inlineStr">
+        <is>
+          <t>10,000.00</t>
+        </is>
+      </c>
+      <c r="H62" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I62" s="4" t="inlineStr">
-        <is>
-          <t>BR1,2,3 --ddt D1 x3</t>
+      <c r="I62" s="1" t="inlineStr">
+        <is>
+          <t>R1615</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>m_M4</t>
+          <t>rft_E8</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>Porc Skirting (100mm high, flush)</t>
+          <t>16mm M.S Rft to columns - C1</t>
         </is>
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>M20.13</t>
+          <t>E30.2</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>1.00 /</t>
+          <t>100.00 /</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>19.00</t>
+          <t>10,000.00</t>
         </is>
       </c>
       <c r="H63" s="1" t="inlineStr">
@@ -2939,85 +2951,73 @@
       </c>
       <c r="I63" s="1" t="inlineStr">
         <is>
-          <t>Hall</t>
+          <t>R1615</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
-        <is>
-          <t>m_M4</t>
-        </is>
-      </c>
-      <c r="B64" s="4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C64" s="4" t="inlineStr">
-        <is>
-          <t>Porc Skirting (100mm high, flush)</t>
-        </is>
-      </c>
-      <c r="D64" s="4" t="inlineStr">
-        <is>
-          <t>M20.13</t>
-        </is>
-      </c>
-      <c r="E64" s="4" t="inlineStr">
-        <is>
-          <t>2.00 /</t>
-        </is>
-      </c>
-      <c r="F64" s="4" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G64" s="4" t="inlineStr">
-        <is>
-          <t>-1.80</t>
-        </is>
-      </c>
-      <c r="H64" s="4" t="inlineStr">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>rft_E8</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr"/>
+      <c r="D64" s="2" t="inlineStr"/>
+      <c r="E64" s="2" t="inlineStr"/>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr">
+        <is>
+          <t>30,000.00</t>
+        </is>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I64" s="4" t="inlineStr">
-        <is>
-          <t>Hall --ddt D1 x2</t>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="inlineStr">
-        <is>
-          <t>m_M4</t>
-        </is>
-      </c>
-      <c r="B65" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C65" s="2" t="inlineStr"/>
-      <c r="D65" s="2" t="inlineStr"/>
-      <c r="E65" s="2" t="inlineStr"/>
-      <c r="F65" s="2" t="inlineStr"/>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>50.50</t>
-        </is>
-      </c>
-      <c r="H65" s="2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I65" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
+      <c r="A65" s="4" t="inlineStr">
+        <is>
+          <t>rft_E8</t>
+        </is>
+      </c>
+      <c r="B65" s="4" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C65" s="4" t="inlineStr"/>
+      <c r="D65" s="4" t="inlineStr"/>
+      <c r="E65" s="4" t="inlineStr"/>
+      <c r="F65" s="4" t="inlineStr">
+        <is>
+          <t>0.888</t>
+        </is>
+      </c>
+      <c r="G65" s="4" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="H65" s="4" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="I65" s="4" t="inlineStr">
+        <is>
+          <t>TONNAGE</t>
         </is>
       </c>
     </row>

--- a/exports/takeOff_sheet.xlsx
+++ b/exports/takeOff_sheet.xlsx
@@ -29,10 +29,10 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00FF00"/>
     </font>
     <font>
-      <color rgb="FF00FF00"/>
+      <color rgb="FFFF0000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -488,293 +488,213 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>m_F1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>Precast Sills (100x75mm, splayed) to windows</t>
+          <t>C25 Rfcd Conc in Pad fdn - F1</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>F10.15.3</t>
+          <t>E20.1</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>50.00 /</t>
+          <t>10.00 /</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t>4,550.00</t>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr"/>
+      <c r="H2" s="1" t="inlineStr"/>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>W1 x10nr</t>
+          <t>F1 size (1.2 x 1.2 x 0.15)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>m_F1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t>Precast Sills (100x75mm, splayed) to windows</t>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
-        <is>
-          <t>F10.15.3</t>
-        </is>
-      </c>
-      <c r="E3" s="1" t="inlineStr">
-        <is>
-          <t>50.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr"/>
+      <c r="D3" s="1" t="inlineStr"/>
+      <c r="E3" s="1" t="inlineStr"/>
       <c r="F3" s="1" t="inlineStr">
         <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="G3" s="1" t="inlineStr">
-        <is>
-          <t>4,550.00</t>
-        </is>
-      </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
-        <is>
-          <t>W1 x10nr</t>
-        </is>
-      </c>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr"/>
+      <c r="H3" s="1" t="inlineStr"/>
+      <c r="I3" s="1" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>m_F1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>Precast Sills (100x75mm, splayed) to windows</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
-        <is>
-          <t>F10.15.3</t>
-        </is>
-      </c>
-      <c r="E4" s="1" t="inlineStr">
-        <is>
-          <t>50.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr"/>
+      <c r="D4" s="1" t="inlineStr"/>
+      <c r="E4" s="1" t="inlineStr"/>
       <c r="F4" s="1" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G4" s="1" t="inlineStr">
         <is>
-          <t>4,550.00</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
-        <is>
-          <t>W1 x10nr</t>
-        </is>
-      </c>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>m_F1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>Precast Sills (100x75mm, splayed) to windows</t>
+          <t>C25 Rfcd Conc in Pad fdn cols - C1</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>F10.15.3</t>
+          <t>E20.1</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>50.00 /</t>
+          <t>10.00 /</t>
         </is>
       </c>
       <c r="F5" s="1" t="inlineStr">
         <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="G5" s="1" t="inlineStr">
-        <is>
-          <t>4,550.00</t>
-        </is>
-      </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="G5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr"/>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>W1 x10nr</t>
+          <t>C1 size (0.15 x 0.15 x 1.5)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>m_F1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>Precast Sills (100x75mm, splayed) to windows</t>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>F10.15.3</t>
-        </is>
-      </c>
-      <c r="E6" s="1" t="inlineStr">
-        <is>
-          <t>50.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr"/>
+      <c r="D6" s="1" t="inlineStr"/>
+      <c r="E6" s="1" t="inlineStr"/>
       <c r="F6" s="1" t="inlineStr">
         <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="G6" s="1" t="inlineStr">
-        <is>
-          <t>4,550.00</t>
-        </is>
-      </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
-        <is>
-          <t>W1 x10nr</t>
-        </is>
-      </c>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="G6" s="1" t="inlineStr"/>
+      <c r="H6" s="1" t="inlineStr"/>
+      <c r="I6" s="1" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>m_F1</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr"/>
-      <c r="D7" s="2" t="inlineStr"/>
-      <c r="E7" s="2" t="inlineStr"/>
-      <c r="F7" s="2" t="inlineStr"/>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>22,750.00</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
-        </is>
-      </c>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>m3_E3</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="inlineStr"/>
+      <c r="D7" s="1" t="inlineStr"/>
+      <c r="E7" s="1" t="inlineStr"/>
+      <c r="F7" s="1" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G7" s="1" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="H7" s="1" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I7" s="1" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>nr_L1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>Panel Doors (hdwd) - D1</t>
+          <t>C25 Rfcd Conc in Oversite bed</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>L20.1</t>
+          <t>E20.1</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>10.00 /</t>
+          <t>1.00 /</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
@@ -782,135 +702,91 @@
           <t>10.00</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
+      <c r="G8" s="1" t="inlineStr"/>
+      <c r="H8" s="1" t="inlineStr"/>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>D1 (900x2100mm)</t>
+          <t>GL/A-D</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>nr_L1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>Flush Doors (hdwd) - D2</t>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
-        <is>
-          <t>L20.1</t>
-        </is>
-      </c>
-      <c r="E9" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr"/>
+      <c r="D9" s="1" t="inlineStr"/>
+      <c r="E9" s="1" t="inlineStr"/>
       <c r="F9" s="1" t="inlineStr">
         <is>
           <t>15.00</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
+      <c r="G9" s="1" t="inlineStr"/>
+      <c r="H9" s="1" t="inlineStr"/>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>D2 (750x2100mm)</t>
+          <t>GL/1-4</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>nr_L1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Flush Doors (hdwd) - D2</t>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
-        <is>
-          <t>L20.1</t>
-        </is>
-      </c>
-      <c r="E10" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C10" s="1" t="inlineStr"/>
+      <c r="D10" s="1" t="inlineStr"/>
+      <c r="E10" s="1" t="inlineStr"/>
       <c r="F10" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="G10" s="1" t="inlineStr">
         <is>
-          <t>75.00</t>
+          <t>22.50</t>
         </is>
       </c>
       <c r="H10" s="1" t="inlineStr">
         <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>D2 (750x2100mm)</t>
-        </is>
-      </c>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I10" s="1" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>nr_L1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>Flush Doors (hdwd) - D2</t>
+          <t>C25 Rfcd Conc in Pad fdn - F1</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>L20.1</t>
+          <t>E20.1</t>
         </is>
       </c>
       <c r="E11" s="1" t="inlineStr">
@@ -920,403 +796,371 @@
       </c>
       <c r="F11" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="G11" s="1" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G11" s="1" t="inlineStr"/>
+      <c r="H11" s="1" t="inlineStr"/>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>D2 (750x2100mm)</t>
+          <t>F1 size (1.2 x 1.2 x 0.15)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>nr_L1</t>
+          <t>m3_E3</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Flush Doors (hdwd) - D2</t>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
-        <is>
-          <t>L20.1</t>
-        </is>
-      </c>
-      <c r="E12" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr"/>
+      <c r="D12" s="1" t="inlineStr"/>
+      <c r="E12" s="1" t="inlineStr"/>
       <c r="F12" s="1" t="inlineStr">
         <is>
-          <t>15.00</t>
-        </is>
-      </c>
-      <c r="G12" s="1" t="inlineStr">
-        <is>
-          <t>75.00</t>
-        </is>
-      </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
-        <is>
-          <t>D2 (750x2100mm)</t>
-        </is>
-      </c>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G12" s="1" t="inlineStr"/>
+      <c r="H12" s="1" t="inlineStr"/>
+      <c r="I12" s="1" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>nr_L1</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr"/>
-      <c r="D13" s="2" t="inlineStr"/>
-      <c r="E13" s="2" t="inlineStr"/>
-      <c r="F13" s="2" t="inlineStr"/>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>400.00</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>m3_E3</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="inlineStr"/>
+      <c r="D13" s="1" t="inlineStr"/>
+      <c r="E13" s="1" t="inlineStr"/>
+      <c r="F13" s="1" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="G13" s="1" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="H13" s="1" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I13" s="1" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>m3_E3</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr"/>
+      <c r="D14" s="2" t="inlineStr"/>
+      <c r="E14" s="2" t="inlineStr"/>
+      <c r="F14" s="2" t="inlineStr"/>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>26.08</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>m3</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>nr_L2</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t>Panel Door Frames (150x25mm; composite unit)</t>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>L20.7.6</t>
-        </is>
-      </c>
-      <c r="E14" s="1" t="inlineStr">
-        <is>
-          <t>10.00 /</t>
-        </is>
-      </c>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G14" s="1" t="inlineStr">
-        <is>
-          <t>50.00</t>
-        </is>
-      </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
-        <is>
-          <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>nr_L2</t>
+          <t>rft_E10</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Flush Door Frames (150x25mm; composite unit)</t>
+          <t>16mm dia rft to slabs</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>L20.7.6</t>
+          <t>E20.2</t>
         </is>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>5.00 /</t>
+          <t>999.00 /</t>
         </is>
       </c>
       <c r="F15" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="G15" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>998,001.00</t>
         </is>
       </c>
       <c r="H15" s="1" t="inlineStr">
         <is>
-          <t>nr</t>
+          <t>m</t>
         </is>
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>D1 (900x2100mm)</t>
+          <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>nr_L2</t>
+          <t>rft_E10</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>Flush Door Frames (150x25mm; composite unit)</t>
+          <t>16mm dia rft to beams</t>
         </is>
       </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>L20.7.6</t>
+          <t>E20.2</t>
         </is>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>5.00 /</t>
+          <t>999.00 /</t>
         </is>
       </c>
       <c r="F16" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="G16" s="1" t="inlineStr">
         <is>
-          <t>25.00</t>
+          <t>998,001.00</t>
         </is>
       </c>
       <c r="H16" s="1" t="inlineStr">
         <is>
-          <t>nr</t>
+          <t>m</t>
         </is>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>D1 (900x2100mm)</t>
+          <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>nr_L2</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>Flush Door Frames (150x25mm; composite unit)</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>L20.7.6</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>1.00 /</t>
-        </is>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>-5.00</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="inlineStr">
-        <is>
-          <t>D1 (900x2100mm)</t>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>rft_E10</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>16mm dia rft to columns</t>
+        </is>
+      </c>
+      <c r="D17" s="1" t="inlineStr">
+        <is>
+          <t>E20.2</t>
+        </is>
+      </c>
+      <c r="E17" s="1" t="inlineStr">
+        <is>
+          <t>999.00 /</t>
+        </is>
+      </c>
+      <c r="F17" s="1" t="inlineStr">
+        <is>
+          <t>999.00</t>
+        </is>
+      </c>
+      <c r="G17" s="1" t="inlineStr">
+        <is>
+          <t>998,001.00</t>
+        </is>
+      </c>
+      <c r="H17" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I17" s="1" t="inlineStr">
+        <is>
+          <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>nr_L2</t>
+          <t>rft_E10</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Flush Door Frames (150x25mm; composite unit)</t>
+          <t>16mm dia rft to columns</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>L20.7.6</t>
+          <t>E20.2</t>
         </is>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>1.00 /</t>
+          <t>999.00 /</t>
         </is>
       </c>
       <c r="F18" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="G18" s="1" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>998,001.00</t>
         </is>
       </c>
       <c r="H18" s="1" t="inlineStr">
         <is>
-          <t>nr</t>
+          <t>m</t>
         </is>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>D1 (900x2100mm)</t>
+          <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>nr_L2</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr"/>
-      <c r="D19" s="2" t="inlineStr"/>
-      <c r="E19" s="2" t="inlineStr"/>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>nr</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>rft_E10</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>16mm dia rft to columns</t>
+        </is>
+      </c>
+      <c r="D19" s="1" t="inlineStr">
+        <is>
+          <t>E20.2</t>
+        </is>
+      </c>
+      <c r="E19" s="1" t="inlineStr">
+        <is>
+          <t>999.00 /</t>
+        </is>
+      </c>
+      <c r="F19" s="1" t="inlineStr">
+        <is>
+          <t>999.00</t>
+        </is>
+      </c>
+      <c r="G19" s="1" t="inlineStr">
+        <is>
+          <t>998,001.00</t>
+        </is>
+      </c>
+      <c r="H19" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I19" s="1" t="inlineStr">
+        <is>
+          <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>m_M2</t>
+          <t>rft_E10</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>Porc Treads (300mm wide, 12mm th.) to stairs</t>
+          <t>16mm dia rft to columns</t>
         </is>
       </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>M20.7</t>
+          <t>E20.2</t>
         </is>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>17.00 /</t>
+          <t>999.00 /</t>
         </is>
       </c>
       <c r="F20" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>999.00</t>
         </is>
       </c>
       <c r="G20" s="1" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>998,001.00</t>
         </is>
       </c>
       <c r="H20" s="1" t="inlineStr">
@@ -1326,19 +1170,19 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>treads x17nr</t>
+          <t>R1601 - Test Limit</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>m_M2</t>
+          <t>rft_E10</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
@@ -1347,7 +1191,7 @@
       <c r="F21" s="2" t="inlineStr"/>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20.40</t>
+          <t>5,988,006.00</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1362,117 +1206,121 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>m_M3</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>Porc Riser (150mm high, 12mm th.) to stairs</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>M20.8</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>18.00 /</t>
-        </is>
-      </c>
-      <c r="F22" s="1" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G22" s="1" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="H22" s="1" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>rft_E10</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr"/>
+      <c r="D22" s="3" t="inlineStr"/>
+      <c r="E22" s="3" t="inlineStr"/>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>0.888</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>5,317.35</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="inlineStr">
+        <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>TONNAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>rft_E8</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>16mm M.S Rft to columns - C1</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>E30.2</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>100.00 /</t>
+        </is>
+      </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="G23" s="1" t="inlineStr">
+        <is>
+          <t>10,000.00</t>
+        </is>
+      </c>
+      <c r="H23" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I22" s="1" t="inlineStr">
-        <is>
-          <t>risers x18nr</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>m_M3</t>
-        </is>
-      </c>
-      <c r="B23" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
-      <c r="F23" s="2" t="inlineStr"/>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>21.60</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
+      <c r="I23" s="1" t="inlineStr">
+        <is>
+          <t>R1615</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>m_M4</t>
+          <t>rft_E8</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>E</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>Porc Skirting (100mm high, flush)</t>
+          <t>16mm M.S Rft to columns - C1</t>
         </is>
       </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>M20.13</t>
+          <t>E30.2</t>
         </is>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>3.00 /</t>
+          <t>100.00 /</t>
         </is>
       </c>
       <c r="F24" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="G24" s="1" t="inlineStr">
         <is>
-          <t>36.00</t>
+          <t>10,000.00</t>
         </is>
       </c>
       <c r="H24" s="1" t="inlineStr">
@@ -1482,186 +1330,174 @@
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>BR1,2,3</t>
+          <t>R1615</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="inlineStr">
-        <is>
-          <t>m_M4</t>
-        </is>
-      </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>Porc Skirting (100mm high, flush)</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>M20.13</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>3.00 /</t>
-        </is>
-      </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>-2.70</t>
-        </is>
-      </c>
-      <c r="H25" s="3" t="inlineStr">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>rft_E8</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>16mm M.S Rft to columns - C1</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>E30.2</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>100.00 /</t>
+        </is>
+      </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="G25" s="1" t="inlineStr">
+        <is>
+          <t>10,000.00</t>
+        </is>
+      </c>
+      <c r="H25" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I25" s="3" t="inlineStr">
-        <is>
-          <t>BR1,2,3 --ddt D1 x3</t>
+      <c r="I25" s="1" t="inlineStr">
+        <is>
+          <t>R1615</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>m_M4</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>Porc Skirting (100mm high, flush)</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>M20.13</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t>1.00 /</t>
-        </is>
-      </c>
-      <c r="F26" s="1" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="G26" s="1" t="inlineStr">
-        <is>
-          <t>19.00</t>
-        </is>
-      </c>
-      <c r="H26" s="1" t="inlineStr">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>rft_E8</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr"/>
+      <c r="D26" s="2" t="inlineStr"/>
+      <c r="E26" s="2" t="inlineStr"/>
+      <c r="F26" s="2" t="inlineStr"/>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>30,000.00</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I26" s="1" t="inlineStr">
-        <is>
-          <t>Hall</t>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>m_M4</t>
+          <t>rft_E8</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>Porc Skirting (100mm high, flush)</t>
-        </is>
-      </c>
-      <c r="D27" s="3" t="inlineStr">
-        <is>
-          <t>M20.13</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>2.00 /</t>
-        </is>
-      </c>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr"/>
+      <c r="D27" s="3" t="inlineStr"/>
+      <c r="E27" s="3" t="inlineStr"/>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>0.888</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>-1.80</t>
+          <t>26.64</t>
         </is>
       </c>
       <c r="H27" s="3" t="inlineStr">
         <is>
+          <t>t</t>
+        </is>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>TONNAGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>m_F1</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C28" s="1" t="inlineStr">
+        <is>
+          <t>Precast Sills (100x75mm, splayed) to windows</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>F10.15.3</t>
+        </is>
+      </c>
+      <c r="E28" s="1" t="inlineStr">
+        <is>
+          <t>50.00 /</t>
+        </is>
+      </c>
+      <c r="F28" s="1" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="G28" s="1" t="inlineStr">
+        <is>
+          <t>4,550.00</t>
+        </is>
+      </c>
+      <c r="H28" s="1" t="inlineStr">
+        <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I27" s="3" t="inlineStr">
-        <is>
-          <t>Hall --ddt D1 x2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>m_M4</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr"/>
-      <c r="D28" s="2" t="inlineStr"/>
-      <c r="E28" s="2" t="inlineStr"/>
-      <c r="F28" s="2" t="inlineStr"/>
-      <c r="G28" s="2" t="inlineStr">
-        <is>
-          <t>50.50</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
+      <c r="I28" s="1" t="inlineStr">
+        <is>
+          <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>m2_F1</t>
+          <t>m_F1</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
@@ -1671,36 +1507,44 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>150mm solid blockwork - Bedrooms</t>
+          <t>Precast Sills (100x75mm, splayed) to windows</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>F30.1</t>
+          <t>F10.15.3</t>
         </is>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>5.00 /</t>
+          <t>50.00 /</t>
         </is>
       </c>
       <c r="F29" s="1" t="inlineStr">
         <is>
-          <t>12.00</t>
-        </is>
-      </c>
-      <c r="G29" s="1" t="inlineStr"/>
-      <c r="H29" s="1" t="inlineStr"/>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="G29" s="1" t="inlineStr">
+        <is>
+          <t>4,550.00</t>
+        </is>
+      </c>
+      <c r="H29" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>GL/A-B x4</t>
+          <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>m2_F1</t>
+          <t>m_F1</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1708,34 +1552,46 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C30" s="1" t="inlineStr"/>
-      <c r="D30" s="1" t="inlineStr"/>
-      <c r="E30" s="1" t="inlineStr"/>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>Precast Sills (100x75mm, splayed) to windows</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>F10.15.3</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>50.00 /</t>
+        </is>
+      </c>
       <c r="F30" s="1" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>91.00</t>
         </is>
       </c>
       <c r="G30" s="1" t="inlineStr">
         <is>
-          <t>189.00</t>
+          <t>4,550.00</t>
         </is>
       </c>
       <c r="H30" s="1" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>flr to clg ht = 3.15m</t>
+          <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>m2_F1</t>
+          <t>m_F1</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
@@ -1745,36 +1601,44 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
+          <t>Precast Sills (100x75mm, splayed) to windows</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>F30.1</t>
+          <t>F10.15.3</t>
         </is>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>5.00 /</t>
+          <t>50.00 /</t>
         </is>
       </c>
       <c r="F31" s="1" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G31" s="1" t="inlineStr"/>
-      <c r="H31" s="1" t="inlineStr"/>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="G31" s="1" t="inlineStr">
+        <is>
+          <t>4,550.00</t>
+        </is>
+      </c>
+      <c r="H31" s="1" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>DDT Windows</t>
+          <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>m2_F1</t>
+          <t>m_F1</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1782,66 +1646,70 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C32" s="1" t="inlineStr"/>
-      <c r="D32" s="1" t="inlineStr"/>
-      <c r="E32" s="1" t="inlineStr"/>
+      <c r="C32" s="1" t="inlineStr">
+        <is>
+          <t>Precast Sills (100x75mm, splayed) to windows</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>F10.15.3</t>
+        </is>
+      </c>
+      <c r="E32" s="1" t="inlineStr">
+        <is>
+          <t>50.00 /</t>
+        </is>
+      </c>
       <c r="F32" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>91.00</t>
         </is>
       </c>
       <c r="G32" s="1" t="inlineStr">
         <is>
-          <t>10.80</t>
+          <t>4,550.00</t>
         </is>
       </c>
       <c r="H32" s="1" t="inlineStr">
         <is>
-          <t>m2</t>
+          <t>m</t>
         </is>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>ddt - W1 x 3nr</t>
+          <t>W1 x10nr</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>m2_F1</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>m_F1</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
-        <is>
-          <t>F30.1</t>
-        </is>
-      </c>
-      <c r="E33" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
-      <c r="F33" s="1" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G33" s="1" t="inlineStr"/>
-      <c r="H33" s="1" t="inlineStr"/>
-      <c r="I33" s="1" t="inlineStr">
-        <is>
-          <t>DDT Windows</t>
+      <c r="C33" s="2" t="inlineStr"/>
+      <c r="D33" s="2" t="inlineStr"/>
+      <c r="E33" s="2" t="inlineStr"/>
+      <c r="F33" s="2" t="inlineStr"/>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>22,750.00</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
         </is>
       </c>
     </row>
@@ -1856,27 +1724,31 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C34" s="1" t="inlineStr"/>
-      <c r="D34" s="1" t="inlineStr"/>
-      <c r="E34" s="1" t="inlineStr"/>
+      <c r="C34" s="1" t="inlineStr">
+        <is>
+          <t>150mm solid blockwork - Bedrooms</t>
+        </is>
+      </c>
+      <c r="D34" s="1" t="inlineStr">
+        <is>
+          <t>F30.1</t>
+        </is>
+      </c>
+      <c r="E34" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
       <c r="F34" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G34" s="1" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="G34" s="1" t="inlineStr"/>
+      <c r="H34" s="1" t="inlineStr"/>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>ddt - W1 x 3nr</t>
+          <t>GL/A-B x4</t>
         </is>
       </c>
     </row>
@@ -1891,31 +1763,27 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t>F30.1</t>
-        </is>
-      </c>
-      <c r="E35" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
+      <c r="C35" s="1" t="inlineStr"/>
+      <c r="D35" s="1" t="inlineStr"/>
+      <c r="E35" s="1" t="inlineStr"/>
       <c r="F35" s="1" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G35" s="1" t="inlineStr"/>
-      <c r="H35" s="1" t="inlineStr"/>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G35" s="1" t="inlineStr">
+        <is>
+          <t>189.00</t>
+        </is>
+      </c>
+      <c r="H35" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>DDT Windows</t>
+          <t>flr to clg ht = 3.15m</t>
         </is>
       </c>
     </row>
@@ -1930,27 +1798,31 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C36" s="1" t="inlineStr"/>
-      <c r="D36" s="1" t="inlineStr"/>
-      <c r="E36" s="1" t="inlineStr"/>
+      <c r="C36" s="1" t="inlineStr">
+        <is>
+          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
+        </is>
+      </c>
+      <c r="D36" s="1" t="inlineStr">
+        <is>
+          <t>F30.1</t>
+        </is>
+      </c>
+      <c r="E36" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
       <c r="F36" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G36" s="1" t="inlineStr">
-        <is>
-          <t>10.80</t>
-        </is>
-      </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G36" s="1" t="inlineStr"/>
+      <c r="H36" s="1" t="inlineStr"/>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>ddt - W1 x 3nr</t>
+          <t>DDT Windows</t>
         </is>
       </c>
     </row>
@@ -1965,31 +1837,27 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
-        <is>
-          <t>F30.1</t>
-        </is>
-      </c>
-      <c r="E37" s="1" t="inlineStr">
-        <is>
-          <t>5.00 /</t>
-        </is>
-      </c>
+      <c r="C37" s="1" t="inlineStr"/>
+      <c r="D37" s="1" t="inlineStr"/>
+      <c r="E37" s="1" t="inlineStr"/>
       <c r="F37" s="1" t="inlineStr">
         <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G37" s="1" t="inlineStr"/>
-      <c r="H37" s="1" t="inlineStr"/>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G37" s="1" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="H37" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>DDT Windows</t>
+          <t>ddt - W1 x 3nr</t>
         </is>
       </c>
     </row>
@@ -2004,109 +1872,117 @@
           <t>F</t>
         </is>
       </c>
-      <c r="C38" s="1" t="inlineStr"/>
-      <c r="D38" s="1" t="inlineStr"/>
-      <c r="E38" s="1" t="inlineStr"/>
+      <c r="C38" s="1" t="inlineStr">
+        <is>
+          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
+        </is>
+      </c>
+      <c r="D38" s="1" t="inlineStr">
+        <is>
+          <t>F30.1</t>
+        </is>
+      </c>
+      <c r="E38" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
       <c r="F38" s="1" t="inlineStr">
         <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G38" s="1" t="inlineStr"/>
+      <c r="H38" s="1" t="inlineStr"/>
+      <c r="I38" s="1" t="inlineStr">
+        <is>
+          <t>DDT Windows</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>m2_F1</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr"/>
+      <c r="D39" s="1" t="inlineStr"/>
+      <c r="E39" s="1" t="inlineStr"/>
+      <c r="F39" s="1" t="inlineStr">
+        <is>
           <t>1.20</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G39" s="1" t="inlineStr">
         <is>
           <t>10.80</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
+      <c r="H39" s="1" t="inlineStr">
         <is>
           <t>m2</t>
         </is>
       </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="I39" s="1" t="inlineStr">
         <is>
           <t>ddt - W1 x 3nr</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>m2_F1</t>
-        </is>
-      </c>
-      <c r="B39" s="2" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="C39" s="2" t="inlineStr"/>
-      <c r="D39" s="2" t="inlineStr"/>
-      <c r="E39" s="2" t="inlineStr"/>
-      <c r="F39" s="2" t="inlineStr"/>
-      <c r="G39" s="2" t="inlineStr">
-        <is>
-          <t>232.20</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>C25 Rfcd Conc in Pad fdn - F1</t>
+          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
         </is>
       </c>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>E20.1</t>
+          <t>F30.1</t>
         </is>
       </c>
       <c r="E40" s="1" t="inlineStr">
         <is>
-          <t>10.00 /</t>
+          <t>5.00 /</t>
         </is>
       </c>
       <c r="F40" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="G40" s="1" t="inlineStr"/>
       <c r="H40" s="1" t="inlineStr"/>
       <c r="I40" s="1" t="inlineStr">
         <is>
-          <t>F1 size (1.2 x 1.2 x 0.15)</t>
+          <t>DDT Windows</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>F</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
@@ -2117,250 +1993,334 @@
           <t>1.20</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr"/>
-      <c r="H41" s="1" t="inlineStr"/>
-      <c r="I41" s="1" t="inlineStr"/>
+      <c r="G41" s="1" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="H41" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="I41" s="1" t="inlineStr">
+        <is>
+          <t>ddt - W1 x 3nr</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr"/>
-      <c r="D42" s="1" t="inlineStr"/>
-      <c r="E42" s="1" t="inlineStr"/>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>150mm solid blockwork - Bedrooms --ddt w/ws</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
+        <is>
+          <t>F30.1</t>
+        </is>
+      </c>
+      <c r="E42" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
       <c r="F42" s="1" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G42" s="1" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>m3</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr"/>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G42" s="1" t="inlineStr"/>
+      <c r="H42" s="1" t="inlineStr"/>
+      <c r="I42" s="1" t="inlineStr">
+        <is>
+          <t>DDT Windows</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>m2_F1</t>
         </is>
       </c>
       <c r="B43" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>C25 Rfcd Conc in Pad fdn cols - C1</t>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
-        <is>
-          <t>E20.1</t>
-        </is>
-      </c>
-      <c r="E43" s="1" t="inlineStr">
-        <is>
-          <t>10.00 /</t>
-        </is>
-      </c>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr"/>
+      <c r="D43" s="1" t="inlineStr"/>
+      <c r="E43" s="1" t="inlineStr"/>
       <c r="F43" s="1" t="inlineStr">
         <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G43" s="1" t="inlineStr"/>
-      <c r="H43" s="1" t="inlineStr"/>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G43" s="1" t="inlineStr">
+        <is>
+          <t>10.80</t>
+        </is>
+      </c>
+      <c r="H43" s="1" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
       <c r="I43" s="1" t="inlineStr">
         <is>
-          <t>C1 size (0.15 x 0.15 x 1.5)</t>
+          <t>ddt - W1 x 3nr</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>m3_E3</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr"/>
-      <c r="D44" s="1" t="inlineStr"/>
-      <c r="E44" s="1" t="inlineStr"/>
-      <c r="F44" s="1" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G44" s="1" t="inlineStr"/>
-      <c r="H44" s="1" t="inlineStr"/>
-      <c r="I44" s="1" t="inlineStr"/>
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>m2_F1</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr"/>
+      <c r="D44" s="2" t="inlineStr"/>
+      <c r="E44" s="2" t="inlineStr"/>
+      <c r="F44" s="2" t="inlineStr"/>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>232.20</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>nr_L1</t>
         </is>
       </c>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr"/>
-      <c r="D45" s="1" t="inlineStr"/>
-      <c r="E45" s="1" t="inlineStr"/>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C45" s="1" t="inlineStr">
+        <is>
+          <t>Panel Doors (hdwd) - D1</t>
+        </is>
+      </c>
+      <c r="D45" s="1" t="inlineStr">
+        <is>
+          <t>L20.1</t>
+        </is>
+      </c>
+      <c r="E45" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
       <c r="F45" s="1" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="G45" s="1" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>100.00</t>
         </is>
       </c>
       <c r="H45" s="1" t="inlineStr">
         <is>
-          <t>m3</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr"/>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I45" s="1" t="inlineStr">
+        <is>
+          <t>D1 (900x2100mm)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>nr_L1</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>C25 Rfcd Conc in Oversite bed</t>
+          <t>Flush Doors (hdwd) - D2</t>
         </is>
       </c>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>E20.1</t>
+          <t>L20.1</t>
         </is>
       </c>
       <c r="E46" s="1" t="inlineStr">
         <is>
-          <t>1.00 /</t>
+          <t>5.00 /</t>
         </is>
       </c>
       <c r="F46" s="1" t="inlineStr">
         <is>
-          <t>10.00</t>
-        </is>
-      </c>
-      <c r="G46" s="1" t="inlineStr"/>
-      <c r="H46" s="1" t="inlineStr"/>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="G46" s="1" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="H46" s="1" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
       <c r="I46" s="1" t="inlineStr">
         <is>
-          <t>GL/A-D</t>
+          <t>D2 (750x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>nr_L1</t>
         </is>
       </c>
       <c r="B47" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr"/>
-      <c r="D47" s="1" t="inlineStr"/>
-      <c r="E47" s="1" t="inlineStr"/>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C47" s="1" t="inlineStr">
+        <is>
+          <t>Flush Doors (hdwd) - D2</t>
+        </is>
+      </c>
+      <c r="D47" s="1" t="inlineStr">
+        <is>
+          <t>L20.1</t>
+        </is>
+      </c>
+      <c r="E47" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
       <c r="F47" s="1" t="inlineStr">
         <is>
           <t>15.00</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr"/>
-      <c r="H47" s="1" t="inlineStr"/>
+      <c r="G47" s="1" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="H47" s="1" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
       <c r="I47" s="1" t="inlineStr">
         <is>
-          <t>GL/1-4</t>
+          <t>D2 (750x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>nr_L1</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr"/>
-      <c r="D48" s="1" t="inlineStr"/>
-      <c r="E48" s="1" t="inlineStr"/>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C48" s="1" t="inlineStr">
+        <is>
+          <t>Flush Doors (hdwd) - D2</t>
+        </is>
+      </c>
+      <c r="D48" s="1" t="inlineStr">
+        <is>
+          <t>L20.1</t>
+        </is>
+      </c>
+      <c r="E48" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
       <c r="F48" s="1" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>15.00</t>
         </is>
       </c>
       <c r="G48" s="1" t="inlineStr">
         <is>
-          <t>22.50</t>
+          <t>75.00</t>
         </is>
       </c>
       <c r="H48" s="1" t="inlineStr">
         <is>
-          <t>m3</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr"/>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I48" s="1" t="inlineStr">
+        <is>
+          <t>D2 (750x2100mm)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>nr_L1</t>
         </is>
       </c>
       <c r="B49" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>C25 Rfcd Conc in Pad fdn - F1</t>
+          <t>Flush Doors (hdwd) - D2</t>
         </is>
       </c>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>E20.1</t>
+          <t>L20.1</t>
         </is>
       </c>
       <c r="E49" s="1" t="inlineStr">
@@ -2370,324 +2330,356 @@
       </c>
       <c r="F49" s="1" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G49" s="1" t="inlineStr"/>
-      <c r="H49" s="1" t="inlineStr"/>
+          <t>15.00</t>
+        </is>
+      </c>
+      <c r="G49" s="1" t="inlineStr">
+        <is>
+          <t>75.00</t>
+        </is>
+      </c>
+      <c r="H49" s="1" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
       <c r="I49" s="1" t="inlineStr">
         <is>
-          <t>F1 size (1.2 x 1.2 x 0.15)</t>
+          <t>D2 (750x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>m3_E3</t>
-        </is>
-      </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr"/>
-      <c r="D50" s="1" t="inlineStr"/>
-      <c r="E50" s="1" t="inlineStr"/>
-      <c r="F50" s="1" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G50" s="1" t="inlineStr"/>
-      <c r="H50" s="1" t="inlineStr"/>
-      <c r="I50" s="1" t="inlineStr"/>
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>nr_L1</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr"/>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
+      <c r="F50" s="2" t="inlineStr"/>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>400.00</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>m3_E3</t>
+          <t>nr_L2</t>
         </is>
       </c>
       <c r="B51" s="1" t="inlineStr">
         <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr"/>
-      <c r="D51" s="1" t="inlineStr"/>
-      <c r="E51" s="1" t="inlineStr"/>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C51" s="1" t="inlineStr">
+        <is>
+          <t>Panel Door Frames (150x25mm; composite unit)</t>
+        </is>
+      </c>
+      <c r="D51" s="1" t="inlineStr">
+        <is>
+          <t>L20.7.6</t>
+        </is>
+      </c>
+      <c r="E51" s="1" t="inlineStr">
+        <is>
+          <t>10.00 /</t>
+        </is>
+      </c>
       <c r="F51" s="1" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G51" s="1" t="inlineStr">
         <is>
-          <t>1.08</t>
+          <t>50.00</t>
         </is>
       </c>
       <c r="H51" s="1" t="inlineStr">
         <is>
-          <t>m3</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr"/>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I51" s="1" t="inlineStr">
+        <is>
+          <t>D1 (900x2100mm)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>m3_E3</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C52" s="2" t="inlineStr"/>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr"/>
-      <c r="F52" s="2" t="inlineStr"/>
-      <c r="G52" s="2" t="inlineStr">
-        <is>
-          <t>26.08</t>
-        </is>
-      </c>
-      <c r="H52" s="2" t="inlineStr">
-        <is>
-          <t>m3</t>
-        </is>
-      </c>
-      <c r="I52" s="2" t="inlineStr">
-        <is>
-          <t>SUM</t>
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>nr_L2</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C52" s="1" t="inlineStr">
+        <is>
+          <t>Flush Door Frames (150x25mm; composite unit)</t>
+        </is>
+      </c>
+      <c r="D52" s="1" t="inlineStr">
+        <is>
+          <t>L20.7.6</t>
+        </is>
+      </c>
+      <c r="E52" s="1" t="inlineStr">
+        <is>
+          <t>5.00 /</t>
+        </is>
+      </c>
+      <c r="F52" s="1" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G52" s="1" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="H52" s="1" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I52" s="1" t="inlineStr">
+        <is>
+          <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>rft_E10</t>
+          <t>nr_L2</t>
         </is>
       </c>
       <c r="B53" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>16mm dia rft to slabs</t>
+          <t>Flush Door Frames (150x25mm; composite unit)</t>
         </is>
       </c>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>E20.2</t>
+          <t>L20.7.6</t>
         </is>
       </c>
       <c r="E53" s="1" t="inlineStr">
         <is>
-          <t>999.00 /</t>
+          <t>5.00 /</t>
         </is>
       </c>
       <c r="F53" s="1" t="inlineStr">
         <is>
-          <t>999.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G53" s="1" t="inlineStr">
         <is>
-          <t>998,001.00</t>
+          <t>25.00</t>
         </is>
       </c>
       <c r="H53" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>nr</t>
         </is>
       </c>
       <c r="I53" s="1" t="inlineStr">
         <is>
-          <t>R1601 - Test Limit</t>
+          <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>rft_E10</t>
-        </is>
-      </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t>16mm dia rft to beams</t>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
-        <is>
-          <t>E20.2</t>
-        </is>
-      </c>
-      <c r="E54" s="1" t="inlineStr">
-        <is>
-          <t>999.00 /</t>
-        </is>
-      </c>
-      <c r="F54" s="1" t="inlineStr">
-        <is>
-          <t>999.00</t>
-        </is>
-      </c>
-      <c r="G54" s="1" t="inlineStr">
-        <is>
-          <t>998,001.00</t>
-        </is>
-      </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
-        <is>
-          <t>R1601 - Test Limit</t>
+      <c r="A54" s="4" t="inlineStr">
+        <is>
+          <t>nr_L2</t>
+        </is>
+      </c>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C54" s="4" t="inlineStr">
+        <is>
+          <t>Flush Door Frames (150x25mm; composite unit)</t>
+        </is>
+      </c>
+      <c r="D54" s="4" t="inlineStr">
+        <is>
+          <t>L20.7.6</t>
+        </is>
+      </c>
+      <c r="E54" s="4" t="inlineStr">
+        <is>
+          <t>1.00 /</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G54" s="4" t="inlineStr">
+        <is>
+          <t>-5.00</t>
+        </is>
+      </c>
+      <c r="H54" s="4" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I54" s="4" t="inlineStr">
+        <is>
+          <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>rft_E10</t>
+          <t>nr_L2</t>
         </is>
       </c>
       <c r="B55" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>L</t>
         </is>
       </c>
       <c r="C55" s="1" t="inlineStr">
         <is>
-          <t>16mm dia rft to columns</t>
+          <t>Flush Door Frames (150x25mm; composite unit)</t>
         </is>
       </c>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>E20.2</t>
+          <t>L20.7.6</t>
         </is>
       </c>
       <c r="E55" s="1" t="inlineStr">
         <is>
-          <t>999.00 /</t>
+          <t>1.00 /</t>
         </is>
       </c>
       <c r="F55" s="1" t="inlineStr">
         <is>
-          <t>999.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G55" s="1" t="inlineStr">
         <is>
-          <t>998,001.00</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="H55" s="1" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>nr</t>
         </is>
       </c>
       <c r="I55" s="1" t="inlineStr">
         <is>
-          <t>R1601 - Test Limit</t>
+          <t>D1 (900x2100mm)</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>rft_E10</t>
-        </is>
-      </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t>16mm dia rft to columns</t>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
-        <is>
-          <t>E20.2</t>
-        </is>
-      </c>
-      <c r="E56" s="1" t="inlineStr">
-        <is>
-          <t>999.00 /</t>
-        </is>
-      </c>
-      <c r="F56" s="1" t="inlineStr">
-        <is>
-          <t>999.00</t>
-        </is>
-      </c>
-      <c r="G56" s="1" t="inlineStr">
-        <is>
-          <t>998,001.00</t>
-        </is>
-      </c>
-      <c r="H56" s="1" t="inlineStr">
-        <is>
-          <t>m</t>
-        </is>
-      </c>
-      <c r="I56" s="1" t="inlineStr">
-        <is>
-          <t>R1601 - Test Limit</t>
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>nr_L2</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr"/>
+      <c r="D56" s="2" t="inlineStr"/>
+      <c r="E56" s="2" t="inlineStr"/>
+      <c r="F56" s="2" t="inlineStr"/>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>nr</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>rft_E10</t>
+          <t>m_M2</t>
         </is>
       </c>
       <c r="B57" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C57" s="1" t="inlineStr">
         <is>
-          <t>16mm dia rft to columns</t>
+          <t>Porc Treads (300mm wide, 12mm th.) to stairs</t>
         </is>
       </c>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>E20.2</t>
+          <t>M20.7</t>
         </is>
       </c>
       <c r="E57" s="1" t="inlineStr">
         <is>
-          <t>999.00 /</t>
+          <t>17.00 /</t>
         </is>
       </c>
       <c r="F57" s="1" t="inlineStr">
         <is>
-          <t>999.00</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G57" s="1" t="inlineStr">
         <is>
-          <t>998,001.00</t>
+          <t>20.40</t>
         </is>
       </c>
       <c r="H57" s="1" t="inlineStr">
@@ -2697,157 +2689,153 @@
       </c>
       <c r="I57" s="1" t="inlineStr">
         <is>
-          <t>R1601 - Test Limit</t>
+          <t>treads x17nr</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>rft_E10</t>
-        </is>
-      </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t>16mm dia rft to columns</t>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
-        <is>
-          <t>E20.2</t>
-        </is>
-      </c>
-      <c r="E58" s="1" t="inlineStr">
-        <is>
-          <t>999.00 /</t>
-        </is>
-      </c>
-      <c r="F58" s="1" t="inlineStr">
-        <is>
-          <t>999.00</t>
-        </is>
-      </c>
-      <c r="G58" s="1" t="inlineStr">
-        <is>
-          <t>998,001.00</t>
-        </is>
-      </c>
-      <c r="H58" s="1" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>m_M2</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr"/>
+      <c r="D58" s="2" t="inlineStr"/>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>20.40</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I58" s="1" t="inlineStr">
-        <is>
-          <t>R1601 - Test Limit</t>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>SUM</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="inlineStr">
-        <is>
-          <t>rft_E10</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C59" s="2" t="inlineStr"/>
-      <c r="D59" s="2" t="inlineStr"/>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr">
-        <is>
-          <t>5,988,006.00</t>
-        </is>
-      </c>
-      <c r="H59" s="2" t="inlineStr">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>m_M3</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C59" s="1" t="inlineStr">
+        <is>
+          <t>Porc Riser (150mm high, 12mm th.) to stairs</t>
+        </is>
+      </c>
+      <c r="D59" s="1" t="inlineStr">
+        <is>
+          <t>M20.8</t>
+        </is>
+      </c>
+      <c r="E59" s="1" t="inlineStr">
+        <is>
+          <t>18.00 /</t>
+        </is>
+      </c>
+      <c r="F59" s="1" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G59" s="1" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="H59" s="1" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I59" s="2" t="inlineStr">
+      <c r="I59" s="1" t="inlineStr">
+        <is>
+          <t>risers x18nr</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>m_M3</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr"/>
+      <c r="D60" s="2" t="inlineStr"/>
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>21.60</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="4" t="inlineStr">
-        <is>
-          <t>rft_E10</t>
-        </is>
-      </c>
-      <c r="B60" s="4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C60" s="4" t="inlineStr"/>
-      <c r="D60" s="4" t="inlineStr"/>
-      <c r="E60" s="4" t="inlineStr"/>
-      <c r="F60" s="4" t="inlineStr">
-        <is>
-          <t>0.888</t>
-        </is>
-      </c>
-      <c r="G60" s="4" t="inlineStr">
-        <is>
-          <t>5,317.35</t>
-        </is>
-      </c>
-      <c r="H60" s="4" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="I60" s="4" t="inlineStr">
-        <is>
-          <t>TONNAGE</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>rft_E8</t>
+          <t>m_M4</t>
         </is>
       </c>
       <c r="B61" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C61" s="1" t="inlineStr">
         <is>
-          <t>16mm M.S Rft to columns - C1</t>
+          <t>Porc Skirting (100mm high, flush)</t>
         </is>
       </c>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>E30.2</t>
+          <t>M20.13</t>
         </is>
       </c>
       <c r="E61" s="1" t="inlineStr">
         <is>
-          <t>100.00 /</t>
+          <t>3.00 /</t>
         </is>
       </c>
       <c r="F61" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="G61" s="1" t="inlineStr">
         <is>
-          <t>10,000.00</t>
+          <t>36.00</t>
         </is>
       </c>
       <c r="H61" s="1" t="inlineStr">
@@ -2857,91 +2845,91 @@
       </c>
       <c r="I61" s="1" t="inlineStr">
         <is>
-          <t>R1615</t>
+          <t>BR1,2,3</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>rft_E8</t>
-        </is>
-      </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t>16mm M.S Rft to columns - C1</t>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
-        <is>
-          <t>E30.2</t>
-        </is>
-      </c>
-      <c r="E62" s="1" t="inlineStr">
-        <is>
-          <t>100.00 /</t>
-        </is>
-      </c>
-      <c r="F62" s="1" t="inlineStr">
-        <is>
-          <t>100.00</t>
-        </is>
-      </c>
-      <c r="G62" s="1" t="inlineStr">
-        <is>
-          <t>10,000.00</t>
-        </is>
-      </c>
-      <c r="H62" s="1" t="inlineStr">
+      <c r="A62" s="4" t="inlineStr">
+        <is>
+          <t>m_M4</t>
+        </is>
+      </c>
+      <c r="B62" s="4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C62" s="4" t="inlineStr">
+        <is>
+          <t>Porc Skirting (100mm high, flush)</t>
+        </is>
+      </c>
+      <c r="D62" s="4" t="inlineStr">
+        <is>
+          <t>M20.13</t>
+        </is>
+      </c>
+      <c r="E62" s="4" t="inlineStr">
+        <is>
+          <t>3.00 /</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G62" s="4" t="inlineStr">
+        <is>
+          <t>-2.70</t>
+        </is>
+      </c>
+      <c r="H62" s="4" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I62" s="1" t="inlineStr">
-        <is>
-          <t>R1615</t>
+      <c r="I62" s="4" t="inlineStr">
+        <is>
+          <t>BR1,2,3 --ddt D1 x3</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>rft_E8</t>
+          <t>m_M4</t>
         </is>
       </c>
       <c r="B63" s="1" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C63" s="1" t="inlineStr">
         <is>
-          <t>16mm M.S Rft to columns - C1</t>
+          <t>Porc Skirting (100mm high, flush)</t>
         </is>
       </c>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>E30.2</t>
+          <t>M20.13</t>
         </is>
       </c>
       <c r="E63" s="1" t="inlineStr">
         <is>
-          <t>100.00 /</t>
+          <t>1.00 /</t>
         </is>
       </c>
       <c r="F63" s="1" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="G63" s="1" t="inlineStr">
         <is>
-          <t>10,000.00</t>
+          <t>19.00</t>
         </is>
       </c>
       <c r="H63" s="1" t="inlineStr">
@@ -2951,73 +2939,85 @@
       </c>
       <c r="I63" s="1" t="inlineStr">
         <is>
-          <t>R1615</t>
+          <t>Hall</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="inlineStr">
-        <is>
-          <t>rft_E8</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C64" s="2" t="inlineStr"/>
-      <c r="D64" s="2" t="inlineStr"/>
-      <c r="E64" s="2" t="inlineStr"/>
-      <c r="F64" s="2" t="inlineStr"/>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>30,000.00</t>
-        </is>
-      </c>
-      <c r="H64" s="2" t="inlineStr">
+      <c r="A64" s="4" t="inlineStr">
+        <is>
+          <t>m_M4</t>
+        </is>
+      </c>
+      <c r="B64" s="4" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C64" s="4" t="inlineStr">
+        <is>
+          <t>Porc Skirting (100mm high, flush)</t>
+        </is>
+      </c>
+      <c r="D64" s="4" t="inlineStr">
+        <is>
+          <t>M20.13</t>
+        </is>
+      </c>
+      <c r="E64" s="4" t="inlineStr">
+        <is>
+          <t>2.00 /</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G64" s="4" t="inlineStr">
+        <is>
+          <t>-1.80</t>
+        </is>
+      </c>
+      <c r="H64" s="4" t="inlineStr">
         <is>
           <t>m</t>
         </is>
       </c>
-      <c r="I64" s="2" t="inlineStr">
+      <c r="I64" s="4" t="inlineStr">
+        <is>
+          <t>Hall --ddt D1 x2</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>m_M4</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr"/>
+      <c r="D65" s="2" t="inlineStr"/>
+      <c r="E65" s="2" t="inlineStr"/>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr">
+        <is>
+          <t>50.50</t>
+        </is>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
         <is>
           <t>SUM</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="4" t="inlineStr">
-        <is>
-          <t>rft_E8</t>
-        </is>
-      </c>
-      <c r="B65" s="4" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="C65" s="4" t="inlineStr"/>
-      <c r="D65" s="4" t="inlineStr"/>
-      <c r="E65" s="4" t="inlineStr"/>
-      <c r="F65" s="4" t="inlineStr">
-        <is>
-          <t>0.888</t>
-        </is>
-      </c>
-      <c r="G65" s="4" t="inlineStr">
-        <is>
-          <t>26.64</t>
-        </is>
-      </c>
-      <c r="H65" s="4" t="inlineStr">
-        <is>
-          <t>t</t>
-        </is>
-      </c>
-      <c r="I65" s="4" t="inlineStr">
-        <is>
-          <t>TONNAGE</t>
         </is>
       </c>
     </row>
